--- a/templates/results_template.xlsx
+++ b/templates/results_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuavanamerom/Desktop/analyze_fetal_chd_flows/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuavanamerom/Research/analyze_fetal_chd_flows/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2DD6DDC-10DC-5B4B-B441-B4C7993A5FF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A57742-FC4B-2F4D-9366-E65EB2E3A6E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50560" yWindow="-8960" windowWidth="24640" windowHeight="14000" xr2:uid="{A1863F86-481D-EE4D-AD62-A24E2CF81781}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{A1863F86-481D-EE4D-AD62-A24E2CF81781}"/>
   </bookViews>
   <sheets>
     <sheet name="Flows" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="54">
   <si>
     <t>Measured Flows (ml/min/kg)</t>
   </si>
@@ -918,10 +918,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D34D76A5-3245-7F4D-A222-97C1E628E079}">
-  <dimension ref="A1:AQ754"/>
+  <dimension ref="A1:AQ758"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="Y3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D152" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight"/>
@@ -8244,79 +8244,79 @@
       <c r="V68" s="10"/>
       <c r="W68" s="10"/>
       <c r="X68" s="20" t="str">
-        <f t="shared" ref="X68:X131" si="20">IF(OR(ISBLANK(E68),ISBLANK($W68)),"",100*E68/$W68)</f>
+        <f t="shared" ref="X68:X132" si="20">IF(OR(ISBLANK(E68),ISBLANK($W68)),"",100*E68/$W68)</f>
         <v/>
       </c>
       <c r="Y68" s="10" t="str">
-        <f t="shared" ref="Y68:Y131" si="21">IF(OR(ISBLANK(F68),ISBLANK($W68)),"",100*F68/$W68)</f>
+        <f t="shared" ref="Y68:Y132" si="21">IF(OR(ISBLANK(F68),ISBLANK($W68)),"",100*F68/$W68)</f>
         <v/>
       </c>
       <c r="Z68" s="10" t="str">
-        <f t="shared" ref="Z68:Z131" si="22">IF(OR(ISBLANK(G68),ISBLANK($W68)),"",100*G68/$W68)</f>
+        <f t="shared" ref="Z68:Z132" si="22">IF(OR(ISBLANK(G68),ISBLANK($W68)),"",100*G68/$W68)</f>
         <v/>
       </c>
       <c r="AA68" s="10" t="str">
-        <f t="shared" ref="AA68:AA131" si="23">IF(OR(ISBLANK(H68),ISBLANK($W68)),"",100*H68/$W68)</f>
+        <f t="shared" ref="AA68:AA132" si="23">IF(OR(ISBLANK(H68),ISBLANK($W68)),"",100*H68/$W68)</f>
         <v/>
       </c>
       <c r="AB68" s="10" t="str">
-        <f t="shared" ref="AB68:AB131" si="24">IF(OR(ISBLANK(I68),ISBLANK($W68)),"",100*I68/$W68)</f>
+        <f t="shared" ref="AB68:AB132" si="24">IF(OR(ISBLANK(I68),ISBLANK($W68)),"",100*I68/$W68)</f>
         <v/>
       </c>
       <c r="AC68" s="10" t="str">
-        <f t="shared" ref="AC68:AC131" si="25">IF(OR(ISBLANK(J68),ISBLANK($W68)),"",100*J68/$W68)</f>
+        <f t="shared" ref="AC68:AC132" si="25">IF(OR(ISBLANK(J68),ISBLANK($W68)),"",100*J68/$W68)</f>
         <v/>
       </c>
       <c r="AD68" s="10" t="str">
-        <f t="shared" ref="AD68:AD131" si="26">IF(OR(ISBLANK(K68),ISBLANK($W68)),"",100*K68/$W68)</f>
+        <f t="shared" ref="AD68:AD132" si="26">IF(OR(ISBLANK(K68),ISBLANK($W68)),"",100*K68/$W68)</f>
         <v/>
       </c>
       <c r="AE68" s="20" t="str">
-        <f t="shared" ref="AE68:AE131" si="27">IF(OR(ISBLANK(L68),ISBLANK($W68)),"",100*L68/$W68)</f>
+        <f t="shared" ref="AE68:AE132" si="27">IF(OR(ISBLANK(L68),ISBLANK($W68)),"",100*L68/$W68)</f>
         <v/>
       </c>
       <c r="AF68" s="10" t="str">
-        <f t="shared" ref="AF68:AF131" si="28">IF(OR(ISBLANK(M68),ISBLANK($W68)),"",100*M68/$W68)</f>
+        <f t="shared" ref="AF68:AF132" si="28">IF(OR(ISBLANK(M68),ISBLANK($W68)),"",100*M68/$W68)</f>
         <v/>
       </c>
       <c r="AG68" s="10" t="str">
-        <f t="shared" ref="AG68:AG131" si="29">IF(OR(ISBLANK(N68),ISBLANK($W68)),"",100*N68/$W68)</f>
+        <f t="shared" ref="AG68:AG132" si="29">IF(OR(ISBLANK(N68),ISBLANK($W68)),"",100*N68/$W68)</f>
         <v/>
       </c>
       <c r="AH68" s="10" t="str">
-        <f t="shared" ref="AH68:AH131" si="30">IF(OR(ISBLANK(O68),ISBLANK($W68)),"",100*O68/$W68)</f>
+        <f t="shared" ref="AH68:AH132" si="30">IF(OR(ISBLANK(O68),ISBLANK($W68)),"",100*O68/$W68)</f>
         <v/>
       </c>
       <c r="AI68" s="10" t="str">
-        <f t="shared" ref="AI68:AI131" si="31">IF(OR(ISBLANK(P68),ISBLANK($W68)),"",100*P68/$W68)</f>
+        <f t="shared" ref="AI68:AI132" si="31">IF(OR(ISBLANK(P68),ISBLANK($W68)),"",100*P68/$W68)</f>
         <v/>
       </c>
       <c r="AJ68" s="10" t="str">
-        <f t="shared" ref="AJ68:AJ131" si="32">IF(OR(ISBLANK(Q68),ISBLANK($W68)),"",100*Q68/$W68)</f>
+        <f t="shared" ref="AJ68:AJ132" si="32">IF(OR(ISBLANK(Q68),ISBLANK($W68)),"",100*Q68/$W68)</f>
         <v/>
       </c>
       <c r="AK68" s="10" t="str">
-        <f t="shared" ref="AK68:AK131" si="33">IF(OR(ISBLANK(R68),ISBLANK($W68)),"",100*R68/$W68)</f>
+        <f t="shared" ref="AK68:AK132" si="33">IF(OR(ISBLANK(R68),ISBLANK($W68)),"",100*R68/$W68)</f>
         <v/>
       </c>
       <c r="AL68" s="10" t="str">
-        <f t="shared" ref="AL68:AL131" si="34">IF(OR(ISBLANK(S68),ISBLANK($W68)),"",100*S68/$W68)</f>
+        <f t="shared" ref="AL68:AL132" si="34">IF(OR(ISBLANK(S68),ISBLANK($W68)),"",100*S68/$W68)</f>
         <v/>
       </c>
       <c r="AM68" s="10" t="str">
-        <f t="shared" ref="AM68:AM131" si="35">IF(OR(ISBLANK(T68),ISBLANK($W68)),"",100*T68/$W68)</f>
+        <f t="shared" ref="AM68:AM132" si="35">IF(OR(ISBLANK(T68),ISBLANK($W68)),"",100*T68/$W68)</f>
         <v/>
       </c>
       <c r="AN68" s="10" t="str">
-        <f t="shared" ref="AN68:AN131" si="36">IF(OR(ISBLANK(U68),ISBLANK($W68)),"",100*U68/$W68)</f>
+        <f t="shared" ref="AN68:AN132" si="36">IF(OR(ISBLANK(U68),ISBLANK($W68)),"",100*U68/$W68)</f>
         <v/>
       </c>
       <c r="AO68" s="10" t="str">
-        <f t="shared" ref="AO68:AO131" si="37">IF(OR(ISBLANK(V68),ISBLANK($W68)),"",100*V68/$W68)</f>
+        <f t="shared" ref="AO68:AO132" si="37">IF(OR(ISBLANK(V68),ISBLANK($W68)),"",100*V68/$W68)</f>
         <v/>
       </c>
       <c r="AP68" s="10" t="str">
-        <f t="shared" ref="AP68:AP131" si="38">IF(OR(ISBLANK(W68),ISBLANK($W68)),"",100*W68/$W68)</f>
+        <f t="shared" ref="AP68:AP132" si="38">IF(OR(ISBLANK(W68),ISBLANK($W68)),"",100*W68/$W68)</f>
         <v/>
       </c>
     </row>
@@ -13880,111 +13880,111 @@
       </c>
     </row>
     <row r="120" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A120" s="14" t="s">
+      <c r="A120" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B120" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C120" s="14">
-        <v>1</v>
-      </c>
-      <c r="D120" s="35" t="s">
+      <c r="B120" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C120" s="7">
+        <v>27</v>
+      </c>
+      <c r="D120" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E120" s="20"/>
-      <c r="F120" s="10"/>
-      <c r="G120" s="10"/>
-      <c r="H120" s="10"/>
-      <c r="I120" s="10"/>
-      <c r="J120" s="10"/>
-      <c r="K120" s="10"/>
-      <c r="L120" s="20"/>
-      <c r="M120" s="10"/>
-      <c r="N120" s="10"/>
-      <c r="O120" s="10"/>
-      <c r="P120" s="10"/>
-      <c r="Q120" s="10"/>
-      <c r="R120" s="10"/>
-      <c r="S120" s="10"/>
-      <c r="T120" s="10"/>
-      <c r="U120" s="10"/>
-      <c r="V120" s="10"/>
-      <c r="W120" s="10"/>
-      <c r="X120" s="20" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="Y120" s="10" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="Z120" s="10" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="AA120" s="10" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="AB120" s="10" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="AC120" s="10" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="AD120" s="10" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="AE120" s="20" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="AF120" s="10" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="AG120" s="10" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="AH120" s="10" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="AI120" s="10" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="AJ120" s="10" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="AK120" s="10" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="AL120" s="10" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AM120" s="10" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="AN120" s="10" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="AO120" s="10" t="str">
-        <f t="shared" si="37"/>
-        <v/>
-      </c>
-      <c r="AP120" s="10" t="str">
-        <f t="shared" si="38"/>
+      <c r="E120" s="25"/>
+      <c r="F120" s="17"/>
+      <c r="G120" s="17"/>
+      <c r="H120" s="17"/>
+      <c r="I120" s="17"/>
+      <c r="J120" s="17"/>
+      <c r="K120" s="17"/>
+      <c r="L120" s="25"/>
+      <c r="M120" s="17"/>
+      <c r="N120" s="17"/>
+      <c r="O120" s="17"/>
+      <c r="P120" s="17"/>
+      <c r="Q120" s="17"/>
+      <c r="R120" s="17"/>
+      <c r="S120" s="17"/>
+      <c r="T120" s="17"/>
+      <c r="U120" s="17"/>
+      <c r="V120" s="17"/>
+      <c r="W120" s="17"/>
+      <c r="X120" s="25" t="str">
+        <f t="shared" ref="X120" si="39">IF(OR(ISBLANK(E120),ISBLANK($W120)),"",100*E120/$W120)</f>
+        <v/>
+      </c>
+      <c r="Y120" s="17" t="str">
+        <f t="shared" ref="Y120" si="40">IF(OR(ISBLANK(F120),ISBLANK($W120)),"",100*F120/$W120)</f>
+        <v/>
+      </c>
+      <c r="Z120" s="17" t="str">
+        <f t="shared" ref="Z120" si="41">IF(OR(ISBLANK(G120),ISBLANK($W120)),"",100*G120/$W120)</f>
+        <v/>
+      </c>
+      <c r="AA120" s="17" t="str">
+        <f t="shared" ref="AA120" si="42">IF(OR(ISBLANK(H120),ISBLANK($W120)),"",100*H120/$W120)</f>
+        <v/>
+      </c>
+      <c r="AB120" s="17" t="str">
+        <f t="shared" ref="AB120" si="43">IF(OR(ISBLANK(I120),ISBLANK($W120)),"",100*I120/$W120)</f>
+        <v/>
+      </c>
+      <c r="AC120" s="17" t="str">
+        <f t="shared" ref="AC120" si="44">IF(OR(ISBLANK(J120),ISBLANK($W120)),"",100*J120/$W120)</f>
+        <v/>
+      </c>
+      <c r="AD120" s="17" t="str">
+        <f t="shared" ref="AD120" si="45">IF(OR(ISBLANK(K120),ISBLANK($W120)),"",100*K120/$W120)</f>
+        <v/>
+      </c>
+      <c r="AE120" s="25" t="str">
+        <f t="shared" ref="AE120" si="46">IF(OR(ISBLANK(L120),ISBLANK($W120)),"",100*L120/$W120)</f>
+        <v/>
+      </c>
+      <c r="AF120" s="17" t="str">
+        <f t="shared" ref="AF120" si="47">IF(OR(ISBLANK(M120),ISBLANK($W120)),"",100*M120/$W120)</f>
+        <v/>
+      </c>
+      <c r="AG120" s="17" t="str">
+        <f t="shared" ref="AG120" si="48">IF(OR(ISBLANK(N120),ISBLANK($W120)),"",100*N120/$W120)</f>
+        <v/>
+      </c>
+      <c r="AH120" s="17" t="str">
+        <f t="shared" ref="AH120" si="49">IF(OR(ISBLANK(O120),ISBLANK($W120)),"",100*O120/$W120)</f>
+        <v/>
+      </c>
+      <c r="AI120" s="17" t="str">
+        <f t="shared" ref="AI120" si="50">IF(OR(ISBLANK(P120),ISBLANK($W120)),"",100*P120/$W120)</f>
+        <v/>
+      </c>
+      <c r="AJ120" s="17" t="str">
+        <f t="shared" ref="AJ120" si="51">IF(OR(ISBLANK(Q120),ISBLANK($W120)),"",100*Q120/$W120)</f>
+        <v/>
+      </c>
+      <c r="AK120" s="17" t="str">
+        <f t="shared" ref="AK120" si="52">IF(OR(ISBLANK(R120),ISBLANK($W120)),"",100*R120/$W120)</f>
+        <v/>
+      </c>
+      <c r="AL120" s="17" t="str">
+        <f t="shared" ref="AL120" si="53">IF(OR(ISBLANK(S120),ISBLANK($W120)),"",100*S120/$W120)</f>
+        <v/>
+      </c>
+      <c r="AM120" s="17" t="str">
+        <f t="shared" ref="AM120" si="54">IF(OR(ISBLANK(T120),ISBLANK($W120)),"",100*T120/$W120)</f>
+        <v/>
+      </c>
+      <c r="AN120" s="17" t="str">
+        <f t="shared" ref="AN120" si="55">IF(OR(ISBLANK(U120),ISBLANK($W120)),"",100*U120/$W120)</f>
+        <v/>
+      </c>
+      <c r="AO120" s="17" t="str">
+        <f t="shared" ref="AO120" si="56">IF(OR(ISBLANK(V120),ISBLANK($W120)),"",100*V120/$W120)</f>
+        <v/>
+      </c>
+      <c r="AP120" s="17" t="str">
+        <f t="shared" ref="AP120" si="57">IF(OR(ISBLANK(W120),ISBLANK($W120)),"",100*W120/$W120)</f>
         <v/>
       </c>
     </row>
@@ -13996,7 +13996,7 @@
         <v>26</v>
       </c>
       <c r="C121" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D121" s="35" t="s">
         <v>25</v>
@@ -14105,7 +14105,7 @@
         <v>26</v>
       </c>
       <c r="C122" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D122" s="35" t="s">
         <v>25</v>
@@ -14214,7 +14214,7 @@
         <v>26</v>
       </c>
       <c r="C123" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D123" s="35" t="s">
         <v>25</v>
@@ -14323,7 +14323,7 @@
         <v>26</v>
       </c>
       <c r="C124" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D124" s="35" t="s">
         <v>25</v>
@@ -14432,7 +14432,7 @@
         <v>26</v>
       </c>
       <c r="C125" s="14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D125" s="35" t="s">
         <v>25</v>
@@ -14541,7 +14541,7 @@
         <v>26</v>
       </c>
       <c r="C126" s="14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D126" s="35" t="s">
         <v>25</v>
@@ -14650,7 +14650,7 @@
         <v>26</v>
       </c>
       <c r="C127" s="14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D127" s="35" t="s">
         <v>25</v>
@@ -14759,7 +14759,7 @@
         <v>26</v>
       </c>
       <c r="C128" s="14">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D128" s="35" t="s">
         <v>25</v>
@@ -14861,110 +14861,110 @@
       </c>
     </row>
     <row r="129" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A129" s="15" t="s">
+      <c r="A129" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B129" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C129" s="15">
-        <v>1</v>
-      </c>
-      <c r="D129" s="36" t="s">
+      <c r="B129" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C129" s="14">
+        <v>9</v>
+      </c>
+      <c r="D129" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="E129" s="21"/>
-      <c r="F129" s="11"/>
-      <c r="G129" s="11"/>
-      <c r="H129" s="11"/>
-      <c r="I129" s="11"/>
-      <c r="J129" s="11"/>
-      <c r="K129" s="11"/>
-      <c r="L129" s="21"/>
-      <c r="M129" s="11"/>
-      <c r="N129" s="11"/>
-      <c r="O129" s="11"/>
-      <c r="P129" s="11"/>
-      <c r="Q129" s="11"/>
-      <c r="R129" s="11"/>
-      <c r="S129" s="11"/>
-      <c r="T129" s="11"/>
-      <c r="U129" s="11"/>
-      <c r="V129" s="11"/>
-      <c r="W129" s="11"/>
-      <c r="X129" s="21" t="str">
+      <c r="E129" s="20"/>
+      <c r="F129" s="10"/>
+      <c r="G129" s="10"/>
+      <c r="H129" s="10"/>
+      <c r="I129" s="10"/>
+      <c r="J129" s="10"/>
+      <c r="K129" s="10"/>
+      <c r="L129" s="20"/>
+      <c r="M129" s="10"/>
+      <c r="N129" s="10"/>
+      <c r="O129" s="10"/>
+      <c r="P129" s="10"/>
+      <c r="Q129" s="10"/>
+      <c r="R129" s="10"/>
+      <c r="S129" s="10"/>
+      <c r="T129" s="10"/>
+      <c r="U129" s="10"/>
+      <c r="V129" s="10"/>
+      <c r="W129" s="10"/>
+      <c r="X129" s="20" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="Y129" s="11" t="str">
+      <c r="Y129" s="10" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="Z129" s="11" t="str">
+      <c r="Z129" s="10" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="AA129" s="11" t="str">
+      <c r="AA129" s="10" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="AB129" s="11" t="str">
+      <c r="AB129" s="10" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="AC129" s="11" t="str">
+      <c r="AC129" s="10" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="AD129" s="11" t="str">
+      <c r="AD129" s="10" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="AE129" s="21" t="str">
+      <c r="AE129" s="20" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="AF129" s="11" t="str">
+      <c r="AF129" s="10" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="AG129" s="11" t="str">
+      <c r="AG129" s="10" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="AH129" s="11" t="str">
+      <c r="AH129" s="10" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="AI129" s="11" t="str">
+      <c r="AI129" s="10" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="AJ129" s="11" t="str">
+      <c r="AJ129" s="10" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AK129" s="11" t="str">
+      <c r="AK129" s="10" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="AL129" s="11" t="str">
+      <c r="AL129" s="10" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="AM129" s="11" t="str">
+      <c r="AM129" s="10" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="AN129" s="11" t="str">
+      <c r="AN129" s="10" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="AO129" s="11" t="str">
+      <c r="AO129" s="10" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="AP129" s="11" t="str">
+      <c r="AP129" s="10" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -14977,7 +14977,7 @@
         <v>27</v>
       </c>
       <c r="C130" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D130" s="36" t="s">
         <v>25</v>
@@ -15086,7 +15086,7 @@
         <v>27</v>
       </c>
       <c r="C131" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D131" s="36" t="s">
         <v>25</v>
@@ -15188,220 +15188,220 @@
       </c>
     </row>
     <row r="132" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A132" s="16" t="s">
+      <c r="A132" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B132" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C132" s="16">
-        <v>1</v>
-      </c>
-      <c r="D132" s="37" t="s">
+      <c r="B132" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C132" s="15">
+        <v>3</v>
+      </c>
+      <c r="D132" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="E132" s="24"/>
-      <c r="F132" s="16"/>
-      <c r="G132" s="16"/>
-      <c r="H132" s="16"/>
-      <c r="I132" s="16"/>
-      <c r="J132" s="16"/>
-      <c r="K132" s="16"/>
-      <c r="L132" s="24"/>
-      <c r="M132" s="16"/>
-      <c r="N132" s="16"/>
-      <c r="O132" s="16"/>
-      <c r="P132" s="16"/>
-      <c r="Q132" s="16"/>
-      <c r="R132" s="16"/>
-      <c r="S132" s="16"/>
-      <c r="T132" s="16"/>
-      <c r="U132" s="16"/>
-      <c r="V132" s="16"/>
-      <c r="W132" s="16"/>
-      <c r="X132" s="24" t="str">
-        <f t="shared" ref="X132:X175" si="39">IF(OR(ISBLANK(E132),ISBLANK($W132)),"",100*E132/$W132)</f>
-        <v/>
-      </c>
-      <c r="Y132" s="16" t="str">
-        <f t="shared" ref="Y132:Y175" si="40">IF(OR(ISBLANK(F132),ISBLANK($W132)),"",100*F132/$W132)</f>
-        <v/>
-      </c>
-      <c r="Z132" s="16" t="str">
-        <f t="shared" ref="Z132:Z175" si="41">IF(OR(ISBLANK(G132),ISBLANK($W132)),"",100*G132/$W132)</f>
-        <v/>
-      </c>
-      <c r="AA132" s="16" t="str">
-        <f t="shared" ref="AA132:AA175" si="42">IF(OR(ISBLANK(H132),ISBLANK($W132)),"",100*H132/$W132)</f>
-        <v/>
-      </c>
-      <c r="AB132" s="16" t="str">
-        <f t="shared" ref="AB132:AB175" si="43">IF(OR(ISBLANK(I132),ISBLANK($W132)),"",100*I132/$W132)</f>
-        <v/>
-      </c>
-      <c r="AC132" s="16" t="str">
-        <f t="shared" ref="AC132:AC175" si="44">IF(OR(ISBLANK(J132),ISBLANK($W132)),"",100*J132/$W132)</f>
-        <v/>
-      </c>
-      <c r="AD132" s="16" t="str">
-        <f t="shared" ref="AD132:AD175" si="45">IF(OR(ISBLANK(K132),ISBLANK($W132)),"",100*K132/$W132)</f>
-        <v/>
-      </c>
-      <c r="AE132" s="24" t="str">
-        <f t="shared" ref="AE132:AE175" si="46">IF(OR(ISBLANK(L132),ISBLANK($W132)),"",100*L132/$W132)</f>
-        <v/>
-      </c>
-      <c r="AF132" s="16" t="str">
-        <f t="shared" ref="AF132:AF175" si="47">IF(OR(ISBLANK(M132),ISBLANK($W132)),"",100*M132/$W132)</f>
-        <v/>
-      </c>
-      <c r="AG132" s="16" t="str">
-        <f t="shared" ref="AG132:AG175" si="48">IF(OR(ISBLANK(N132),ISBLANK($W132)),"",100*N132/$W132)</f>
-        <v/>
-      </c>
-      <c r="AH132" s="16" t="str">
-        <f t="shared" ref="AH132:AH175" si="49">IF(OR(ISBLANK(O132),ISBLANK($W132)),"",100*O132/$W132)</f>
-        <v/>
-      </c>
-      <c r="AI132" s="16" t="str">
-        <f t="shared" ref="AI132:AI175" si="50">IF(OR(ISBLANK(P132),ISBLANK($W132)),"",100*P132/$W132)</f>
-        <v/>
-      </c>
-      <c r="AJ132" s="16" t="str">
-        <f t="shared" ref="AJ132:AJ175" si="51">IF(OR(ISBLANK(Q132),ISBLANK($W132)),"",100*Q132/$W132)</f>
-        <v/>
-      </c>
-      <c r="AK132" s="16" t="str">
-        <f t="shared" ref="AK132:AK175" si="52">IF(OR(ISBLANK(R132),ISBLANK($W132)),"",100*R132/$W132)</f>
-        <v/>
-      </c>
-      <c r="AL132" s="16" t="str">
-        <f t="shared" ref="AL132:AL175" si="53">IF(OR(ISBLANK(S132),ISBLANK($W132)),"",100*S132/$W132)</f>
-        <v/>
-      </c>
-      <c r="AM132" s="16" t="str">
-        <f t="shared" ref="AM132:AM175" si="54">IF(OR(ISBLANK(T132),ISBLANK($W132)),"",100*T132/$W132)</f>
-        <v/>
-      </c>
-      <c r="AN132" s="16" t="str">
-        <f t="shared" ref="AN132:AN175" si="55">IF(OR(ISBLANK(U132),ISBLANK($W132)),"",100*U132/$W132)</f>
-        <v/>
-      </c>
-      <c r="AO132" s="16" t="str">
-        <f t="shared" ref="AO132:AO175" si="56">IF(OR(ISBLANK(V132),ISBLANK($W132)),"",100*V132/$W132)</f>
-        <v/>
-      </c>
-      <c r="AP132" s="16" t="str">
-        <f t="shared" ref="AP132:AP175" si="57">IF(OR(ISBLANK(W132),ISBLANK($W132)),"",100*W132/$W132)</f>
+      <c r="E132" s="21"/>
+      <c r="F132" s="11"/>
+      <c r="G132" s="11"/>
+      <c r="H132" s="11"/>
+      <c r="I132" s="11"/>
+      <c r="J132" s="11"/>
+      <c r="K132" s="11"/>
+      <c r="L132" s="21"/>
+      <c r="M132" s="11"/>
+      <c r="N132" s="11"/>
+      <c r="O132" s="11"/>
+      <c r="P132" s="11"/>
+      <c r="Q132" s="11"/>
+      <c r="R132" s="11"/>
+      <c r="S132" s="11"/>
+      <c r="T132" s="11"/>
+      <c r="U132" s="11"/>
+      <c r="V132" s="11"/>
+      <c r="W132" s="11"/>
+      <c r="X132" s="21" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="Y132" s="11" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="Z132" s="11" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="AA132" s="11" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="AB132" s="11" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AC132" s="11" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="AD132" s="11" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="AE132" s="21" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="AF132" s="11" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="AG132" s="11" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="AH132" s="11" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="AI132" s="11" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="AJ132" s="11" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="AK132" s="11" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="AL132" s="11" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="AM132" s="11" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="AN132" s="11" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="AO132" s="11" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="AP132" s="11" t="str">
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="133" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A133" s="16" t="s">
+      <c r="A133" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B133" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C133" s="16">
-        <v>2</v>
-      </c>
-      <c r="D133" s="37" t="s">
+      <c r="B133" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C133" s="15">
+        <v>4</v>
+      </c>
+      <c r="D133" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="E133" s="24"/>
-      <c r="F133" s="16"/>
-      <c r="G133" s="16"/>
-      <c r="H133" s="16"/>
-      <c r="I133" s="16"/>
-      <c r="J133" s="16"/>
-      <c r="K133" s="16"/>
-      <c r="L133" s="24"/>
-      <c r="M133" s="16"/>
-      <c r="N133" s="16"/>
-      <c r="O133" s="16"/>
-      <c r="P133" s="16"/>
-      <c r="Q133" s="16"/>
-      <c r="R133" s="16"/>
-      <c r="S133" s="16"/>
-      <c r="T133" s="16"/>
-      <c r="U133" s="16"/>
-      <c r="V133" s="16"/>
-      <c r="W133" s="16"/>
-      <c r="X133" s="24" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="Y133" s="16" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="Z133" s="16" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="AA133" s="16" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="AB133" s="16" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="AC133" s="16" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="AD133" s="16" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="AE133" s="24" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="AF133" s="16" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="AG133" s="16" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="AH133" s="16" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="AI133" s="16" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AJ133" s="16" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="AK133" s="16" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-      <c r="AL133" s="16" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="AM133" s="16" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="AN133" s="16" t="str">
-        <f t="shared" si="55"/>
-        <v/>
-      </c>
-      <c r="AO133" s="16" t="str">
-        <f t="shared" si="56"/>
-        <v/>
-      </c>
-      <c r="AP133" s="16" t="str">
-        <f t="shared" si="57"/>
+      <c r="E133" s="21"/>
+      <c r="F133" s="11"/>
+      <c r="G133" s="11"/>
+      <c r="H133" s="11"/>
+      <c r="I133" s="11"/>
+      <c r="J133" s="11"/>
+      <c r="K133" s="11"/>
+      <c r="L133" s="21"/>
+      <c r="M133" s="11"/>
+      <c r="N133" s="11"/>
+      <c r="O133" s="11"/>
+      <c r="P133" s="11"/>
+      <c r="Q133" s="11"/>
+      <c r="R133" s="11"/>
+      <c r="S133" s="11"/>
+      <c r="T133" s="11"/>
+      <c r="U133" s="11"/>
+      <c r="V133" s="11"/>
+      <c r="W133" s="11"/>
+      <c r="X133" s="21" t="str">
+        <f t="shared" ref="X133" si="58">IF(OR(ISBLANK(E133),ISBLANK($W133)),"",100*E133/$W133)</f>
+        <v/>
+      </c>
+      <c r="Y133" s="11" t="str">
+        <f t="shared" ref="Y133" si="59">IF(OR(ISBLANK(F133),ISBLANK($W133)),"",100*F133/$W133)</f>
+        <v/>
+      </c>
+      <c r="Z133" s="11" t="str">
+        <f t="shared" ref="Z133" si="60">IF(OR(ISBLANK(G133),ISBLANK($W133)),"",100*G133/$W133)</f>
+        <v/>
+      </c>
+      <c r="AA133" s="11" t="str">
+        <f t="shared" ref="AA133" si="61">IF(OR(ISBLANK(H133),ISBLANK($W133)),"",100*H133/$W133)</f>
+        <v/>
+      </c>
+      <c r="AB133" s="11" t="str">
+        <f t="shared" ref="AB133" si="62">IF(OR(ISBLANK(I133),ISBLANK($W133)),"",100*I133/$W133)</f>
+        <v/>
+      </c>
+      <c r="AC133" s="11" t="str">
+        <f t="shared" ref="AC133" si="63">IF(OR(ISBLANK(J133),ISBLANK($W133)),"",100*J133/$W133)</f>
+        <v/>
+      </c>
+      <c r="AD133" s="11" t="str">
+        <f t="shared" ref="AD133" si="64">IF(OR(ISBLANK(K133),ISBLANK($W133)),"",100*K133/$W133)</f>
+        <v/>
+      </c>
+      <c r="AE133" s="21" t="str">
+        <f t="shared" ref="AE133" si="65">IF(OR(ISBLANK(L133),ISBLANK($W133)),"",100*L133/$W133)</f>
+        <v/>
+      </c>
+      <c r="AF133" s="11" t="str">
+        <f t="shared" ref="AF133" si="66">IF(OR(ISBLANK(M133),ISBLANK($W133)),"",100*M133/$W133)</f>
+        <v/>
+      </c>
+      <c r="AG133" s="11" t="str">
+        <f t="shared" ref="AG133" si="67">IF(OR(ISBLANK(N133),ISBLANK($W133)),"",100*N133/$W133)</f>
+        <v/>
+      </c>
+      <c r="AH133" s="11" t="str">
+        <f t="shared" ref="AH133" si="68">IF(OR(ISBLANK(O133),ISBLANK($W133)),"",100*O133/$W133)</f>
+        <v/>
+      </c>
+      <c r="AI133" s="11" t="str">
+        <f t="shared" ref="AI133" si="69">IF(OR(ISBLANK(P133),ISBLANK($W133)),"",100*P133/$W133)</f>
+        <v/>
+      </c>
+      <c r="AJ133" s="11" t="str">
+        <f t="shared" ref="AJ133" si="70">IF(OR(ISBLANK(Q133),ISBLANK($W133)),"",100*Q133/$W133)</f>
+        <v/>
+      </c>
+      <c r="AK133" s="11" t="str">
+        <f t="shared" ref="AK133" si="71">IF(OR(ISBLANK(R133),ISBLANK($W133)),"",100*R133/$W133)</f>
+        <v/>
+      </c>
+      <c r="AL133" s="11" t="str">
+        <f t="shared" ref="AL133" si="72">IF(OR(ISBLANK(S133),ISBLANK($W133)),"",100*S133/$W133)</f>
+        <v/>
+      </c>
+      <c r="AM133" s="11" t="str">
+        <f t="shared" ref="AM133" si="73">IF(OR(ISBLANK(T133),ISBLANK($W133)),"",100*T133/$W133)</f>
+        <v/>
+      </c>
+      <c r="AN133" s="11" t="str">
+        <f t="shared" ref="AN133" si="74">IF(OR(ISBLANK(U133),ISBLANK($W133)),"",100*U133/$W133)</f>
+        <v/>
+      </c>
+      <c r="AO133" s="11" t="str">
+        <f t="shared" ref="AO133" si="75">IF(OR(ISBLANK(V133),ISBLANK($W133)),"",100*V133/$W133)</f>
+        <v/>
+      </c>
+      <c r="AP133" s="11" t="str">
+        <f t="shared" ref="AP133" si="76">IF(OR(ISBLANK(W133),ISBLANK($W133)),"",100*W133/$W133)</f>
         <v/>
       </c>
     </row>
@@ -15413,7 +15413,7 @@
         <v>28</v>
       </c>
       <c r="C134" s="16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D134" s="37" t="s">
         <v>25</v>
@@ -15438,79 +15438,79 @@
       <c r="V134" s="16"/>
       <c r="W134" s="16"/>
       <c r="X134" s="24" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ref="X134:X179" si="77">IF(OR(ISBLANK(E134),ISBLANK($W134)),"",100*E134/$W134)</f>
         <v/>
       </c>
       <c r="Y134" s="16" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" ref="Y134:Y179" si="78">IF(OR(ISBLANK(F134),ISBLANK($W134)),"",100*F134/$W134)</f>
         <v/>
       </c>
       <c r="Z134" s="16" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" ref="Z134:Z179" si="79">IF(OR(ISBLANK(G134),ISBLANK($W134)),"",100*G134/$W134)</f>
         <v/>
       </c>
       <c r="AA134" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" ref="AA134:AA179" si="80">IF(OR(ISBLANK(H134),ISBLANK($W134)),"",100*H134/$W134)</f>
         <v/>
       </c>
       <c r="AB134" s="16" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" ref="AB134:AB179" si="81">IF(OR(ISBLANK(I134),ISBLANK($W134)),"",100*I134/$W134)</f>
         <v/>
       </c>
       <c r="AC134" s="16" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" ref="AC134:AC179" si="82">IF(OR(ISBLANK(J134),ISBLANK($W134)),"",100*J134/$W134)</f>
         <v/>
       </c>
       <c r="AD134" s="16" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" ref="AD134:AD179" si="83">IF(OR(ISBLANK(K134),ISBLANK($W134)),"",100*K134/$W134)</f>
         <v/>
       </c>
       <c r="AE134" s="24" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" ref="AE134:AE179" si="84">IF(OR(ISBLANK(L134),ISBLANK($W134)),"",100*L134/$W134)</f>
         <v/>
       </c>
       <c r="AF134" s="16" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" ref="AF134:AF179" si="85">IF(OR(ISBLANK(M134),ISBLANK($W134)),"",100*M134/$W134)</f>
         <v/>
       </c>
       <c r="AG134" s="16" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" ref="AG134:AG179" si="86">IF(OR(ISBLANK(N134),ISBLANK($W134)),"",100*N134/$W134)</f>
         <v/>
       </c>
       <c r="AH134" s="16" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" ref="AH134:AH179" si="87">IF(OR(ISBLANK(O134),ISBLANK($W134)),"",100*O134/$W134)</f>
         <v/>
       </c>
       <c r="AI134" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" ref="AI134:AI179" si="88">IF(OR(ISBLANK(P134),ISBLANK($W134)),"",100*P134/$W134)</f>
         <v/>
       </c>
       <c r="AJ134" s="16" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" ref="AJ134:AJ179" si="89">IF(OR(ISBLANK(Q134),ISBLANK($W134)),"",100*Q134/$W134)</f>
         <v/>
       </c>
       <c r="AK134" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" ref="AK134:AK179" si="90">IF(OR(ISBLANK(R134),ISBLANK($W134)),"",100*R134/$W134)</f>
         <v/>
       </c>
       <c r="AL134" s="16" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" ref="AL134:AL179" si="91">IF(OR(ISBLANK(S134),ISBLANK($W134)),"",100*S134/$W134)</f>
         <v/>
       </c>
       <c r="AM134" s="16" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" ref="AM134:AM179" si="92">IF(OR(ISBLANK(T134),ISBLANK($W134)),"",100*T134/$W134)</f>
         <v/>
       </c>
       <c r="AN134" s="16" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" ref="AN134:AN179" si="93">IF(OR(ISBLANK(U134),ISBLANK($W134)),"",100*U134/$W134)</f>
         <v/>
       </c>
       <c r="AO134" s="16" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" ref="AO134:AO179" si="94">IF(OR(ISBLANK(V134),ISBLANK($W134)),"",100*V134/$W134)</f>
         <v/>
       </c>
       <c r="AP134" s="16" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" ref="AP134:AP179" si="95">IF(OR(ISBLANK(W134),ISBLANK($W134)),"",100*W134/$W134)</f>
         <v/>
       </c>
     </row>
@@ -15522,7 +15522,7 @@
         <v>28</v>
       </c>
       <c r="C135" s="16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D135" s="37" t="s">
         <v>25</v>
@@ -15547,79 +15547,79 @@
       <c r="V135" s="16"/>
       <c r="W135" s="16"/>
       <c r="X135" s="24" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="Y135" s="16" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="Z135" s="16" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="AA135" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="80"/>
         <v/>
       </c>
       <c r="AB135" s="16" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="81"/>
         <v/>
       </c>
       <c r="AC135" s="16" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="AD135" s="16" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="AE135" s="24" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="AF135" s="16" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="AG135" s="16" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AH135" s="16" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="AI135" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AJ135" s="16" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AK135" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="AL135" s="16" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="AM135" s="16" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="AN135" s="16" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="93"/>
         <v/>
       </c>
       <c r="AO135" s="16" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="94"/>
         <v/>
       </c>
       <c r="AP135" s="16" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="95"/>
         <v/>
       </c>
     </row>
@@ -15631,7 +15631,7 @@
         <v>28</v>
       </c>
       <c r="C136" s="16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D136" s="37" t="s">
         <v>25</v>
@@ -15656,297 +15656,297 @@
       <c r="V136" s="16"/>
       <c r="W136" s="16"/>
       <c r="X136" s="24" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="Y136" s="16" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="Z136" s="16" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="AA136" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="80"/>
         <v/>
       </c>
       <c r="AB136" s="16" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="81"/>
         <v/>
       </c>
       <c r="AC136" s="16" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="AD136" s="16" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="AE136" s="24" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="AF136" s="16" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="AG136" s="16" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AH136" s="16" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="AI136" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AJ136" s="16" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AK136" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="AL136" s="16" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="AM136" s="16" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="AN136" s="16" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="93"/>
         <v/>
       </c>
       <c r="AO136" s="16" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="94"/>
         <v/>
       </c>
       <c r="AP136" s="16" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="95"/>
         <v/>
       </c>
     </row>
     <row r="137" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A137" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B137" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C137" s="17">
-        <v>1</v>
-      </c>
-      <c r="D137" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="E137" s="25"/>
-      <c r="F137" s="17"/>
-      <c r="G137" s="17"/>
-      <c r="H137" s="17"/>
-      <c r="I137" s="17"/>
-      <c r="J137" s="17"/>
-      <c r="K137" s="17"/>
-      <c r="L137" s="25"/>
-      <c r="M137" s="17"/>
-      <c r="N137" s="17"/>
-      <c r="O137" s="17"/>
-      <c r="P137" s="17"/>
-      <c r="Q137" s="17"/>
-      <c r="R137" s="17"/>
-      <c r="S137" s="17"/>
-      <c r="T137" s="17"/>
-      <c r="U137" s="17"/>
-      <c r="V137" s="17"/>
-      <c r="W137" s="17"/>
-      <c r="X137" s="25" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="Y137" s="17" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="Z137" s="17" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="AA137" s="17" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="AB137" s="17" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="AC137" s="17" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="AD137" s="17" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="AE137" s="25" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="AF137" s="17" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="AG137" s="17" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="AH137" s="17" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="AI137" s="17" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AJ137" s="17" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="AK137" s="17" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-      <c r="AL137" s="17" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="AM137" s="17" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="AN137" s="17" t="str">
-        <f t="shared" si="55"/>
-        <v/>
-      </c>
-      <c r="AO137" s="17" t="str">
-        <f t="shared" si="56"/>
-        <v/>
-      </c>
-      <c r="AP137" s="17" t="str">
-        <f t="shared" si="57"/>
+      <c r="A137" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B137" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C137" s="16">
+        <v>4</v>
+      </c>
+      <c r="D137" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E137" s="24"/>
+      <c r="F137" s="16"/>
+      <c r="G137" s="16"/>
+      <c r="H137" s="16"/>
+      <c r="I137" s="16"/>
+      <c r="J137" s="16"/>
+      <c r="K137" s="16"/>
+      <c r="L137" s="24"/>
+      <c r="M137" s="16"/>
+      <c r="N137" s="16"/>
+      <c r="O137" s="16"/>
+      <c r="P137" s="16"/>
+      <c r="Q137" s="16"/>
+      <c r="R137" s="16"/>
+      <c r="S137" s="16"/>
+      <c r="T137" s="16"/>
+      <c r="U137" s="16"/>
+      <c r="V137" s="16"/>
+      <c r="W137" s="16"/>
+      <c r="X137" s="24" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="Y137" s="16" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="Z137" s="16" t="str">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+      <c r="AA137" s="16" t="str">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+      <c r="AB137" s="16" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AC137" s="16" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AD137" s="16" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="AE137" s="24" t="str">
+        <f t="shared" si="84"/>
+        <v/>
+      </c>
+      <c r="AF137" s="16" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AG137" s="16" t="str">
+        <f t="shared" si="86"/>
+        <v/>
+      </c>
+      <c r="AH137" s="16" t="str">
+        <f t="shared" si="87"/>
+        <v/>
+      </c>
+      <c r="AI137" s="16" t="str">
+        <f t="shared" si="88"/>
+        <v/>
+      </c>
+      <c r="AJ137" s="16" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AK137" s="16" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AL137" s="16" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AM137" s="16" t="str">
+        <f t="shared" si="92"/>
+        <v/>
+      </c>
+      <c r="AN137" s="16" t="str">
+        <f t="shared" si="93"/>
+        <v/>
+      </c>
+      <c r="AO137" s="16" t="str">
+        <f t="shared" si="94"/>
+        <v/>
+      </c>
+      <c r="AP137" s="16" t="str">
+        <f t="shared" si="95"/>
         <v/>
       </c>
     </row>
     <row r="138" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A138" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B138" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C138" s="17">
-        <v>2</v>
-      </c>
-      <c r="D138" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="E138" s="25"/>
-      <c r="F138" s="17"/>
-      <c r="G138" s="17"/>
-      <c r="H138" s="17"/>
-      <c r="I138" s="17"/>
-      <c r="J138" s="17"/>
-      <c r="K138" s="17"/>
-      <c r="L138" s="25"/>
-      <c r="M138" s="17"/>
-      <c r="N138" s="17"/>
-      <c r="O138" s="17"/>
-      <c r="P138" s="17"/>
-      <c r="Q138" s="17"/>
-      <c r="R138" s="17"/>
-      <c r="S138" s="17"/>
-      <c r="T138" s="17"/>
-      <c r="U138" s="17"/>
-      <c r="V138" s="17"/>
-      <c r="W138" s="17"/>
-      <c r="X138" s="25" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="Y138" s="17" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="Z138" s="17" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="AA138" s="17" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="AB138" s="17" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="AC138" s="17" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="AD138" s="17" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="AE138" s="25" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="AF138" s="17" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="AG138" s="17" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="AH138" s="17" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="AI138" s="17" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AJ138" s="17" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="AK138" s="17" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-      <c r="AL138" s="17" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="AM138" s="17" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="AN138" s="17" t="str">
-        <f t="shared" si="55"/>
-        <v/>
-      </c>
-      <c r="AO138" s="17" t="str">
-        <f t="shared" si="56"/>
-        <v/>
-      </c>
-      <c r="AP138" s="17" t="str">
-        <f t="shared" si="57"/>
+      <c r="A138" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B138" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C138" s="16">
+        <v>5</v>
+      </c>
+      <c r="D138" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E138" s="24"/>
+      <c r="F138" s="16"/>
+      <c r="G138" s="16"/>
+      <c r="H138" s="16"/>
+      <c r="I138" s="16"/>
+      <c r="J138" s="16"/>
+      <c r="K138" s="16"/>
+      <c r="L138" s="24"/>
+      <c r="M138" s="16"/>
+      <c r="N138" s="16"/>
+      <c r="O138" s="16"/>
+      <c r="P138" s="16"/>
+      <c r="Q138" s="16"/>
+      <c r="R138" s="16"/>
+      <c r="S138" s="16"/>
+      <c r="T138" s="16"/>
+      <c r="U138" s="16"/>
+      <c r="V138" s="16"/>
+      <c r="W138" s="16"/>
+      <c r="X138" s="24" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="Y138" s="16" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="Z138" s="16" t="str">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+      <c r="AA138" s="16" t="str">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+      <c r="AB138" s="16" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AC138" s="16" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AD138" s="16" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="AE138" s="24" t="str">
+        <f t="shared" si="84"/>
+        <v/>
+      </c>
+      <c r="AF138" s="16" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AG138" s="16" t="str">
+        <f t="shared" si="86"/>
+        <v/>
+      </c>
+      <c r="AH138" s="16" t="str">
+        <f t="shared" si="87"/>
+        <v/>
+      </c>
+      <c r="AI138" s="16" t="str">
+        <f t="shared" si="88"/>
+        <v/>
+      </c>
+      <c r="AJ138" s="16" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AK138" s="16" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AL138" s="16" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AM138" s="16" t="str">
+        <f t="shared" si="92"/>
+        <v/>
+      </c>
+      <c r="AN138" s="16" t="str">
+        <f t="shared" si="93"/>
+        <v/>
+      </c>
+      <c r="AO138" s="16" t="str">
+        <f t="shared" si="94"/>
+        <v/>
+      </c>
+      <c r="AP138" s="16" t="str">
+        <f t="shared" si="95"/>
         <v/>
       </c>
     </row>
@@ -15958,7 +15958,7 @@
         <v>30</v>
       </c>
       <c r="C139" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D139" s="38" t="s">
         <v>13</v>
@@ -15983,79 +15983,79 @@
       <c r="V139" s="17"/>
       <c r="W139" s="17"/>
       <c r="X139" s="25" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="Y139" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="Z139" s="17" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="AA139" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="80"/>
         <v/>
       </c>
       <c r="AB139" s="17" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="81"/>
         <v/>
       </c>
       <c r="AC139" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="AD139" s="17" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="AE139" s="25" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="AF139" s="17" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="AG139" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AH139" s="17" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="AI139" s="17" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AJ139" s="17" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AK139" s="17" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="AL139" s="17" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="AM139" s="17" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="AN139" s="17" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="93"/>
         <v/>
       </c>
       <c r="AO139" s="17" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="94"/>
         <v/>
       </c>
       <c r="AP139" s="17" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="95"/>
         <v/>
       </c>
     </row>
@@ -16067,7 +16067,7 @@
         <v>30</v>
       </c>
       <c r="C140" s="17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D140" s="38" t="s">
         <v>13</v>
@@ -16092,79 +16092,79 @@
       <c r="V140" s="17"/>
       <c r="W140" s="17"/>
       <c r="X140" s="25" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="Y140" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="Z140" s="17" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="AA140" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="80"/>
         <v/>
       </c>
       <c r="AB140" s="17" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="81"/>
         <v/>
       </c>
       <c r="AC140" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="AD140" s="17" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="AE140" s="25" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="AF140" s="17" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="AG140" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AH140" s="17" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="AI140" s="17" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AJ140" s="17" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AK140" s="17" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="AL140" s="17" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="AM140" s="17" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="AN140" s="17" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="93"/>
         <v/>
       </c>
       <c r="AO140" s="17" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="94"/>
         <v/>
       </c>
       <c r="AP140" s="17" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="95"/>
         <v/>
       </c>
     </row>
@@ -16176,7 +16176,7 @@
         <v>30</v>
       </c>
       <c r="C141" s="17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D141" s="38" t="s">
         <v>13</v>
@@ -16201,79 +16201,79 @@
       <c r="V141" s="17"/>
       <c r="W141" s="17"/>
       <c r="X141" s="25" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="Y141" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="Z141" s="17" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="AA141" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="80"/>
         <v/>
       </c>
       <c r="AB141" s="17" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="81"/>
         <v/>
       </c>
       <c r="AC141" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="AD141" s="17" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="AE141" s="25" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="AF141" s="17" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="AG141" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AH141" s="17" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="AI141" s="17" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AJ141" s="17" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AK141" s="17" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="AL141" s="17" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="AM141" s="17" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="AN141" s="17" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="93"/>
         <v/>
       </c>
       <c r="AO141" s="17" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="94"/>
         <v/>
       </c>
       <c r="AP141" s="17" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="95"/>
         <v/>
       </c>
     </row>
@@ -16285,7 +16285,7 @@
         <v>30</v>
       </c>
       <c r="C142" s="17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D142" s="38" t="s">
         <v>13</v>
@@ -16310,79 +16310,79 @@
       <c r="V142" s="17"/>
       <c r="W142" s="17"/>
       <c r="X142" s="25" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="Y142" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="Z142" s="17" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="AA142" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="80"/>
         <v/>
       </c>
       <c r="AB142" s="17" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="81"/>
         <v/>
       </c>
       <c r="AC142" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="AD142" s="17" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="AE142" s="25" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="AF142" s="17" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="AG142" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AH142" s="17" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="AI142" s="17" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AJ142" s="17" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AK142" s="17" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="AL142" s="17" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="AM142" s="17" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="AN142" s="17" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="93"/>
         <v/>
       </c>
       <c r="AO142" s="17" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="94"/>
         <v/>
       </c>
       <c r="AP142" s="17" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="95"/>
         <v/>
       </c>
     </row>
@@ -16394,7 +16394,7 @@
         <v>30</v>
       </c>
       <c r="C143" s="17">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D143" s="38" t="s">
         <v>13</v>
@@ -16419,79 +16419,79 @@
       <c r="V143" s="17"/>
       <c r="W143" s="17"/>
       <c r="X143" s="25" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="Y143" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="Z143" s="17" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="AA143" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="80"/>
         <v/>
       </c>
       <c r="AB143" s="17" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="81"/>
         <v/>
       </c>
       <c r="AC143" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="AD143" s="17" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="AE143" s="25" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="AF143" s="17" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="AG143" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AH143" s="17" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="AI143" s="17" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AJ143" s="17" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AK143" s="17" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="AL143" s="17" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="AM143" s="17" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="AN143" s="17" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="93"/>
         <v/>
       </c>
       <c r="AO143" s="17" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="94"/>
         <v/>
       </c>
       <c r="AP143" s="17" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="95"/>
         <v/>
       </c>
     </row>
@@ -16503,7 +16503,7 @@
         <v>30</v>
       </c>
       <c r="C144" s="17">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D144" s="38" t="s">
         <v>13</v>
@@ -16528,79 +16528,79 @@
       <c r="V144" s="17"/>
       <c r="W144" s="17"/>
       <c r="X144" s="25" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="Y144" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="Z144" s="17" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="AA144" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="80"/>
         <v/>
       </c>
       <c r="AB144" s="17" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="81"/>
         <v/>
       </c>
       <c r="AC144" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="AD144" s="17" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="AE144" s="25" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="AF144" s="17" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="AG144" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AH144" s="17" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="AI144" s="17" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AJ144" s="17" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AK144" s="17" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="AL144" s="17" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="AM144" s="17" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="AN144" s="17" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="93"/>
         <v/>
       </c>
       <c r="AO144" s="17" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="94"/>
         <v/>
       </c>
       <c r="AP144" s="17" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="95"/>
         <v/>
       </c>
     </row>
@@ -16612,7 +16612,7 @@
         <v>30</v>
       </c>
       <c r="C145" s="17">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D145" s="38" t="s">
         <v>13</v>
@@ -16637,79 +16637,79 @@
       <c r="V145" s="17"/>
       <c r="W145" s="17"/>
       <c r="X145" s="25" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="Y145" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="Z145" s="17" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="AA145" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="80"/>
         <v/>
       </c>
       <c r="AB145" s="17" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="81"/>
         <v/>
       </c>
       <c r="AC145" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="AD145" s="17" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="AE145" s="25" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="AF145" s="17" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="AG145" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AH145" s="17" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="AI145" s="17" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AJ145" s="17" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AK145" s="17" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="AL145" s="17" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="AM145" s="17" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="AN145" s="17" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="93"/>
         <v/>
       </c>
       <c r="AO145" s="17" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="94"/>
         <v/>
       </c>
       <c r="AP145" s="17" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="95"/>
         <v/>
       </c>
     </row>
@@ -16721,7 +16721,7 @@
         <v>30</v>
       </c>
       <c r="C146" s="17">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D146" s="38" t="s">
         <v>13</v>
@@ -16746,79 +16746,79 @@
       <c r="V146" s="17"/>
       <c r="W146" s="17"/>
       <c r="X146" s="25" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="Y146" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="Z146" s="17" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="AA146" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="80"/>
         <v/>
       </c>
       <c r="AB146" s="17" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="81"/>
         <v/>
       </c>
       <c r="AC146" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="AD146" s="17" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="AE146" s="25" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="AF146" s="17" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="AG146" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AH146" s="17" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="AI146" s="17" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AJ146" s="17" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AK146" s="17" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="AL146" s="17" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="AM146" s="17" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="AN146" s="17" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="93"/>
         <v/>
       </c>
       <c r="AO146" s="17" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="94"/>
         <v/>
       </c>
       <c r="AP146" s="17" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="95"/>
         <v/>
       </c>
     </row>
@@ -16830,7 +16830,7 @@
         <v>30</v>
       </c>
       <c r="C147" s="17">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D147" s="38" t="s">
         <v>13</v>
@@ -16855,79 +16855,79 @@
       <c r="V147" s="17"/>
       <c r="W147" s="17"/>
       <c r="X147" s="25" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="Y147" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="Z147" s="17" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="AA147" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="80"/>
         <v/>
       </c>
       <c r="AB147" s="17" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="81"/>
         <v/>
       </c>
       <c r="AC147" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="AD147" s="17" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="AE147" s="25" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="AF147" s="17" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="AG147" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AH147" s="17" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="AI147" s="17" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AJ147" s="17" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AK147" s="17" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="AL147" s="17" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="AM147" s="17" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="AN147" s="17" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="93"/>
         <v/>
       </c>
       <c r="AO147" s="17" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="94"/>
         <v/>
       </c>
       <c r="AP147" s="17" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="95"/>
         <v/>
       </c>
     </row>
@@ -16939,7 +16939,7 @@
         <v>30</v>
       </c>
       <c r="C148" s="17">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D148" s="38" t="s">
         <v>13</v>
@@ -16964,406 +16964,406 @@
       <c r="V148" s="17"/>
       <c r="W148" s="17"/>
       <c r="X148" s="25" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="Y148" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="Z148" s="17" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="AA148" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="80"/>
         <v/>
       </c>
       <c r="AB148" s="17" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="81"/>
         <v/>
       </c>
       <c r="AC148" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="AD148" s="17" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="AE148" s="25" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="AF148" s="17" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="AG148" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AH148" s="17" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="AI148" s="17" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AJ148" s="17" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AK148" s="17" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="AL148" s="17" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="AM148" s="17" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="AN148" s="17" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="93"/>
         <v/>
       </c>
       <c r="AO148" s="17" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="94"/>
         <v/>
       </c>
       <c r="AP148" s="17" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="95"/>
         <v/>
       </c>
     </row>
     <row r="149" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A149" s="10" t="s">
+      <c r="A149" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B149" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C149" s="10">
-        <v>1</v>
-      </c>
-      <c r="D149" s="32" t="s">
+      <c r="B149" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C149" s="17">
+        <v>11</v>
+      </c>
+      <c r="D149" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E149" s="20"/>
-      <c r="F149" s="10"/>
-      <c r="G149" s="10"/>
-      <c r="H149" s="10"/>
-      <c r="I149" s="10"/>
-      <c r="J149" s="10"/>
-      <c r="K149" s="10"/>
-      <c r="L149" s="20"/>
-      <c r="M149" s="10"/>
-      <c r="N149" s="10"/>
-      <c r="O149" s="10"/>
-      <c r="P149" s="10"/>
-      <c r="Q149" s="10"/>
-      <c r="R149" s="10"/>
-      <c r="S149" s="10"/>
-      <c r="T149" s="10"/>
-      <c r="U149" s="10"/>
-      <c r="V149" s="10"/>
-      <c r="W149" s="10"/>
-      <c r="X149" s="20" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="Y149" s="10" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="Z149" s="10" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="AA149" s="10" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="AB149" s="10" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="AC149" s="10" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="AD149" s="10" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="AE149" s="20" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="AF149" s="10" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="AG149" s="10" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="AH149" s="10" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="AI149" s="10" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AJ149" s="10" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="AK149" s="10" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-      <c r="AL149" s="10" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="AM149" s="10" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="AN149" s="10" t="str">
-        <f t="shared" si="55"/>
-        <v/>
-      </c>
-      <c r="AO149" s="10" t="str">
-        <f t="shared" si="56"/>
-        <v/>
-      </c>
-      <c r="AP149" s="10" t="str">
-        <f t="shared" si="57"/>
+      <c r="E149" s="25"/>
+      <c r="F149" s="17"/>
+      <c r="G149" s="17"/>
+      <c r="H149" s="17"/>
+      <c r="I149" s="17"/>
+      <c r="J149" s="17"/>
+      <c r="K149" s="17"/>
+      <c r="L149" s="25"/>
+      <c r="M149" s="17"/>
+      <c r="N149" s="17"/>
+      <c r="O149" s="17"/>
+      <c r="P149" s="17"/>
+      <c r="Q149" s="17"/>
+      <c r="R149" s="17"/>
+      <c r="S149" s="17"/>
+      <c r="T149" s="17"/>
+      <c r="U149" s="17"/>
+      <c r="V149" s="17"/>
+      <c r="W149" s="17"/>
+      <c r="X149" s="25" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="Y149" s="17" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="Z149" s="17" t="str">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+      <c r="AA149" s="17" t="str">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+      <c r="AB149" s="17" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AC149" s="17" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AD149" s="17" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="AE149" s="25" t="str">
+        <f t="shared" si="84"/>
+        <v/>
+      </c>
+      <c r="AF149" s="17" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AG149" s="17" t="str">
+        <f t="shared" si="86"/>
+        <v/>
+      </c>
+      <c r="AH149" s="17" t="str">
+        <f t="shared" si="87"/>
+        <v/>
+      </c>
+      <c r="AI149" s="17" t="str">
+        <f t="shared" si="88"/>
+        <v/>
+      </c>
+      <c r="AJ149" s="17" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AK149" s="17" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AL149" s="17" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AM149" s="17" t="str">
+        <f t="shared" si="92"/>
+        <v/>
+      </c>
+      <c r="AN149" s="17" t="str">
+        <f t="shared" si="93"/>
+        <v/>
+      </c>
+      <c r="AO149" s="17" t="str">
+        <f t="shared" si="94"/>
+        <v/>
+      </c>
+      <c r="AP149" s="17" t="str">
+        <f t="shared" si="95"/>
         <v/>
       </c>
     </row>
     <row r="150" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A150" s="10" t="s">
+      <c r="A150" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B150" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C150" s="10">
-        <v>2</v>
-      </c>
-      <c r="D150" s="32" t="s">
+      <c r="B150" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C150" s="17">
+        <v>12</v>
+      </c>
+      <c r="D150" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E150" s="20"/>
-      <c r="F150" s="10"/>
-      <c r="G150" s="10"/>
-      <c r="H150" s="10"/>
-      <c r="I150" s="10"/>
-      <c r="J150" s="10"/>
-      <c r="K150" s="10"/>
-      <c r="L150" s="20"/>
-      <c r="M150" s="10"/>
-      <c r="N150" s="10"/>
-      <c r="O150" s="10"/>
-      <c r="P150" s="10"/>
-      <c r="Q150" s="10"/>
-      <c r="R150" s="10"/>
-      <c r="S150" s="10"/>
-      <c r="T150" s="10"/>
-      <c r="U150" s="10"/>
-      <c r="V150" s="10"/>
-      <c r="W150" s="10"/>
-      <c r="X150" s="20" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="Y150" s="10" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="Z150" s="10" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="AA150" s="10" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="AB150" s="10" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="AC150" s="10" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="AD150" s="10" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="AE150" s="20" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="AF150" s="10" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="AG150" s="10" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="AH150" s="10" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="AI150" s="10" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AJ150" s="10" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="AK150" s="10" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-      <c r="AL150" s="10" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="AM150" s="10" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="AN150" s="10" t="str">
-        <f t="shared" si="55"/>
-        <v/>
-      </c>
-      <c r="AO150" s="10" t="str">
-        <f t="shared" si="56"/>
-        <v/>
-      </c>
-      <c r="AP150" s="10" t="str">
-        <f t="shared" si="57"/>
+      <c r="E150" s="25"/>
+      <c r="F150" s="17"/>
+      <c r="G150" s="17"/>
+      <c r="H150" s="17"/>
+      <c r="I150" s="17"/>
+      <c r="J150" s="17"/>
+      <c r="K150" s="17"/>
+      <c r="L150" s="25"/>
+      <c r="M150" s="17"/>
+      <c r="N150" s="17"/>
+      <c r="O150" s="17"/>
+      <c r="P150" s="17"/>
+      <c r="Q150" s="17"/>
+      <c r="R150" s="17"/>
+      <c r="S150" s="17"/>
+      <c r="T150" s="17"/>
+      <c r="U150" s="17"/>
+      <c r="V150" s="17"/>
+      <c r="W150" s="17"/>
+      <c r="X150" s="25" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="Y150" s="17" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="Z150" s="17" t="str">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+      <c r="AA150" s="17" t="str">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+      <c r="AB150" s="17" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AC150" s="17" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AD150" s="17" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="AE150" s="25" t="str">
+        <f t="shared" si="84"/>
+        <v/>
+      </c>
+      <c r="AF150" s="17" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AG150" s="17" t="str">
+        <f t="shared" si="86"/>
+        <v/>
+      </c>
+      <c r="AH150" s="17" t="str">
+        <f t="shared" si="87"/>
+        <v/>
+      </c>
+      <c r="AI150" s="17" t="str">
+        <f t="shared" si="88"/>
+        <v/>
+      </c>
+      <c r="AJ150" s="17" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AK150" s="17" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AL150" s="17" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AM150" s="17" t="str">
+        <f t="shared" si="92"/>
+        <v/>
+      </c>
+      <c r="AN150" s="17" t="str">
+        <f t="shared" si="93"/>
+        <v/>
+      </c>
+      <c r="AO150" s="17" t="str">
+        <f t="shared" si="94"/>
+        <v/>
+      </c>
+      <c r="AP150" s="17" t="str">
+        <f t="shared" si="95"/>
         <v/>
       </c>
     </row>
     <row r="151" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A151" s="10" t="s">
+      <c r="A151" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B151" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C151" s="10">
-        <v>3</v>
-      </c>
-      <c r="D151" s="32" t="s">
+      <c r="B151" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C151" s="17">
         <v>13</v>
       </c>
-      <c r="E151" s="20"/>
-      <c r="F151" s="10"/>
-      <c r="G151" s="10"/>
-      <c r="H151" s="10"/>
-      <c r="I151" s="10"/>
-      <c r="J151" s="10"/>
-      <c r="K151" s="10"/>
-      <c r="L151" s="20"/>
-      <c r="M151" s="10"/>
-      <c r="N151" s="10"/>
-      <c r="O151" s="10"/>
-      <c r="P151" s="10"/>
-      <c r="Q151" s="10"/>
-      <c r="R151" s="10"/>
-      <c r="S151" s="10"/>
-      <c r="T151" s="10"/>
-      <c r="U151" s="10"/>
-      <c r="V151" s="10"/>
-      <c r="W151" s="10"/>
-      <c r="X151" s="20" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="Y151" s="10" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="Z151" s="10" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="AA151" s="10" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="AB151" s="10" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="AC151" s="10" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="AD151" s="10" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="AE151" s="20" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="AF151" s="10" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="AG151" s="10" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="AH151" s="10" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="AI151" s="10" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AJ151" s="10" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="AK151" s="10" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-      <c r="AL151" s="10" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="AM151" s="10" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="AN151" s="10" t="str">
-        <f t="shared" si="55"/>
-        <v/>
-      </c>
-      <c r="AO151" s="10" t="str">
-        <f t="shared" si="56"/>
-        <v/>
-      </c>
-      <c r="AP151" s="10" t="str">
-        <f t="shared" si="57"/>
+      <c r="D151" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E151" s="25"/>
+      <c r="F151" s="17"/>
+      <c r="G151" s="17"/>
+      <c r="H151" s="17"/>
+      <c r="I151" s="17"/>
+      <c r="J151" s="17"/>
+      <c r="K151" s="17"/>
+      <c r="L151" s="25"/>
+      <c r="M151" s="17"/>
+      <c r="N151" s="17"/>
+      <c r="O151" s="17"/>
+      <c r="P151" s="17"/>
+      <c r="Q151" s="17"/>
+      <c r="R151" s="17"/>
+      <c r="S151" s="17"/>
+      <c r="T151" s="17"/>
+      <c r="U151" s="17"/>
+      <c r="V151" s="17"/>
+      <c r="W151" s="17"/>
+      <c r="X151" s="25" t="str">
+        <f t="shared" ref="X151" si="96">IF(OR(ISBLANK(E151),ISBLANK($W151)),"",100*E151/$W151)</f>
+        <v/>
+      </c>
+      <c r="Y151" s="17" t="str">
+        <f t="shared" ref="Y151" si="97">IF(OR(ISBLANK(F151),ISBLANK($W151)),"",100*F151/$W151)</f>
+        <v/>
+      </c>
+      <c r="Z151" s="17" t="str">
+        <f t="shared" ref="Z151" si="98">IF(OR(ISBLANK(G151),ISBLANK($W151)),"",100*G151/$W151)</f>
+        <v/>
+      </c>
+      <c r="AA151" s="17" t="str">
+        <f t="shared" ref="AA151" si="99">IF(OR(ISBLANK(H151),ISBLANK($W151)),"",100*H151/$W151)</f>
+        <v/>
+      </c>
+      <c r="AB151" s="17" t="str">
+        <f t="shared" ref="AB151" si="100">IF(OR(ISBLANK(I151),ISBLANK($W151)),"",100*I151/$W151)</f>
+        <v/>
+      </c>
+      <c r="AC151" s="17" t="str">
+        <f t="shared" ref="AC151" si="101">IF(OR(ISBLANK(J151),ISBLANK($W151)),"",100*J151/$W151)</f>
+        <v/>
+      </c>
+      <c r="AD151" s="17" t="str">
+        <f t="shared" ref="AD151" si="102">IF(OR(ISBLANK(K151),ISBLANK($W151)),"",100*K151/$W151)</f>
+        <v/>
+      </c>
+      <c r="AE151" s="25" t="str">
+        <f t="shared" ref="AE151" si="103">IF(OR(ISBLANK(L151),ISBLANK($W151)),"",100*L151/$W151)</f>
+        <v/>
+      </c>
+      <c r="AF151" s="17" t="str">
+        <f t="shared" ref="AF151" si="104">IF(OR(ISBLANK(M151),ISBLANK($W151)),"",100*M151/$W151)</f>
+        <v/>
+      </c>
+      <c r="AG151" s="17" t="str">
+        <f t="shared" ref="AG151" si="105">IF(OR(ISBLANK(N151),ISBLANK($W151)),"",100*N151/$W151)</f>
+        <v/>
+      </c>
+      <c r="AH151" s="17" t="str">
+        <f t="shared" ref="AH151" si="106">IF(OR(ISBLANK(O151),ISBLANK($W151)),"",100*O151/$W151)</f>
+        <v/>
+      </c>
+      <c r="AI151" s="17" t="str">
+        <f t="shared" ref="AI151" si="107">IF(OR(ISBLANK(P151),ISBLANK($W151)),"",100*P151/$W151)</f>
+        <v/>
+      </c>
+      <c r="AJ151" s="17" t="str">
+        <f t="shared" ref="AJ151" si="108">IF(OR(ISBLANK(Q151),ISBLANK($W151)),"",100*Q151/$W151)</f>
+        <v/>
+      </c>
+      <c r="AK151" s="17" t="str">
+        <f t="shared" ref="AK151" si="109">IF(OR(ISBLANK(R151),ISBLANK($W151)),"",100*R151/$W151)</f>
+        <v/>
+      </c>
+      <c r="AL151" s="17" t="str">
+        <f t="shared" ref="AL151" si="110">IF(OR(ISBLANK(S151),ISBLANK($W151)),"",100*S151/$W151)</f>
+        <v/>
+      </c>
+      <c r="AM151" s="17" t="str">
+        <f t="shared" ref="AM151" si="111">IF(OR(ISBLANK(T151),ISBLANK($W151)),"",100*T151/$W151)</f>
+        <v/>
+      </c>
+      <c r="AN151" s="17" t="str">
+        <f t="shared" ref="AN151" si="112">IF(OR(ISBLANK(U151),ISBLANK($W151)),"",100*U151/$W151)</f>
+        <v/>
+      </c>
+      <c r="AO151" s="17" t="str">
+        <f t="shared" ref="AO151" si="113">IF(OR(ISBLANK(V151),ISBLANK($W151)),"",100*V151/$W151)</f>
+        <v/>
+      </c>
+      <c r="AP151" s="17" t="str">
+        <f t="shared" ref="AP151" si="114">IF(OR(ISBLANK(W151),ISBLANK($W151)),"",100*W151/$W151)</f>
         <v/>
       </c>
     </row>
@@ -17375,7 +17375,7 @@
         <v>31</v>
       </c>
       <c r="C152" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D152" s="32" t="s">
         <v>13</v>
@@ -17400,624 +17400,624 @@
       <c r="V152" s="10"/>
       <c r="W152" s="10"/>
       <c r="X152" s="20" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="Y152" s="10" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="Z152" s="10" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="AA152" s="10" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="80"/>
         <v/>
       </c>
       <c r="AB152" s="10" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="81"/>
         <v/>
       </c>
       <c r="AC152" s="10" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="AD152" s="10" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="AE152" s="20" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="AF152" s="10" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="AG152" s="10" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AH152" s="10" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="AI152" s="10" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AJ152" s="10" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AK152" s="10" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="AL152" s="10" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="AM152" s="10" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="AN152" s="10" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="93"/>
         <v/>
       </c>
       <c r="AO152" s="10" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="94"/>
         <v/>
       </c>
       <c r="AP152" s="10" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="95"/>
         <v/>
       </c>
     </row>
     <row r="153" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A153" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B153" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C153" s="17">
-        <v>1</v>
-      </c>
-      <c r="D153" s="38" t="s">
+      <c r="A153" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B153" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C153" s="10">
+        <v>2</v>
+      </c>
+      <c r="D153" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="E153" s="25"/>
-      <c r="F153" s="17"/>
-      <c r="G153" s="17"/>
-      <c r="H153" s="17"/>
-      <c r="I153" s="17"/>
-      <c r="J153" s="17"/>
-      <c r="K153" s="17"/>
-      <c r="L153" s="25"/>
-      <c r="M153" s="17"/>
-      <c r="N153" s="17"/>
-      <c r="O153" s="17"/>
-      <c r="P153" s="17"/>
-      <c r="Q153" s="17"/>
-      <c r="R153" s="17"/>
-      <c r="S153" s="17"/>
-      <c r="T153" s="17"/>
-      <c r="U153" s="17"/>
-      <c r="V153" s="17"/>
-      <c r="W153" s="17"/>
-      <c r="X153" s="25" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="Y153" s="17" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="Z153" s="17" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="AA153" s="17" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="AB153" s="17" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="AC153" s="17" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="AD153" s="17" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="AE153" s="25" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="AF153" s="17" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="AG153" s="17" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="AH153" s="17" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="AI153" s="17" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AJ153" s="17" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="AK153" s="17" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-      <c r="AL153" s="17" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="AM153" s="17" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="AN153" s="17" t="str">
-        <f t="shared" si="55"/>
-        <v/>
-      </c>
-      <c r="AO153" s="17" t="str">
-        <f t="shared" si="56"/>
-        <v/>
-      </c>
-      <c r="AP153" s="17" t="str">
-        <f t="shared" si="57"/>
+      <c r="E153" s="20"/>
+      <c r="F153" s="10"/>
+      <c r="G153" s="10"/>
+      <c r="H153" s="10"/>
+      <c r="I153" s="10"/>
+      <c r="J153" s="10"/>
+      <c r="K153" s="10"/>
+      <c r="L153" s="20"/>
+      <c r="M153" s="10"/>
+      <c r="N153" s="10"/>
+      <c r="O153" s="10"/>
+      <c r="P153" s="10"/>
+      <c r="Q153" s="10"/>
+      <c r="R153" s="10"/>
+      <c r="S153" s="10"/>
+      <c r="T153" s="10"/>
+      <c r="U153" s="10"/>
+      <c r="V153" s="10"/>
+      <c r="W153" s="10"/>
+      <c r="X153" s="20" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="Y153" s="10" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="Z153" s="10" t="str">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+      <c r="AA153" s="10" t="str">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+      <c r="AB153" s="10" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AC153" s="10" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AD153" s="10" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="AE153" s="20" t="str">
+        <f t="shared" si="84"/>
+        <v/>
+      </c>
+      <c r="AF153" s="10" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AG153" s="10" t="str">
+        <f t="shared" si="86"/>
+        <v/>
+      </c>
+      <c r="AH153" s="10" t="str">
+        <f t="shared" si="87"/>
+        <v/>
+      </c>
+      <c r="AI153" s="10" t="str">
+        <f t="shared" si="88"/>
+        <v/>
+      </c>
+      <c r="AJ153" s="10" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AK153" s="10" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AL153" s="10" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AM153" s="10" t="str">
+        <f t="shared" si="92"/>
+        <v/>
+      </c>
+      <c r="AN153" s="10" t="str">
+        <f t="shared" si="93"/>
+        <v/>
+      </c>
+      <c r="AO153" s="10" t="str">
+        <f t="shared" si="94"/>
+        <v/>
+      </c>
+      <c r="AP153" s="10" t="str">
+        <f t="shared" si="95"/>
         <v/>
       </c>
     </row>
     <row r="154" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A154" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B154" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C154" s="17">
-        <v>2</v>
-      </c>
-      <c r="D154" s="38" t="s">
+      <c r="A154" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B154" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C154" s="10">
+        <v>3</v>
+      </c>
+      <c r="D154" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="E154" s="25"/>
-      <c r="F154" s="17"/>
-      <c r="G154" s="17"/>
-      <c r="H154" s="17"/>
-      <c r="I154" s="17"/>
-      <c r="J154" s="17"/>
-      <c r="K154" s="17"/>
-      <c r="L154" s="25"/>
-      <c r="M154" s="17"/>
-      <c r="N154" s="17"/>
-      <c r="O154" s="17"/>
-      <c r="P154" s="17"/>
-      <c r="Q154" s="17"/>
-      <c r="R154" s="17"/>
-      <c r="S154" s="17"/>
-      <c r="T154" s="17"/>
-      <c r="U154" s="17"/>
-      <c r="V154" s="17"/>
-      <c r="W154" s="17"/>
-      <c r="X154" s="25" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="Y154" s="17" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="Z154" s="17" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="AA154" s="17" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="AB154" s="17" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="AC154" s="17" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="AD154" s="17" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="AE154" s="25" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="AF154" s="17" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="AG154" s="17" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="AH154" s="17" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="AI154" s="17" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AJ154" s="17" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="AK154" s="17" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-      <c r="AL154" s="17" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="AM154" s="17" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="AN154" s="17" t="str">
-        <f t="shared" si="55"/>
-        <v/>
-      </c>
-      <c r="AO154" s="17" t="str">
-        <f t="shared" si="56"/>
-        <v/>
-      </c>
-      <c r="AP154" s="17" t="str">
-        <f t="shared" si="57"/>
+      <c r="E154" s="20"/>
+      <c r="F154" s="10"/>
+      <c r="G154" s="10"/>
+      <c r="H154" s="10"/>
+      <c r="I154" s="10"/>
+      <c r="J154" s="10"/>
+      <c r="K154" s="10"/>
+      <c r="L154" s="20"/>
+      <c r="M154" s="10"/>
+      <c r="N154" s="10"/>
+      <c r="O154" s="10"/>
+      <c r="P154" s="10"/>
+      <c r="Q154" s="10"/>
+      <c r="R154" s="10"/>
+      <c r="S154" s="10"/>
+      <c r="T154" s="10"/>
+      <c r="U154" s="10"/>
+      <c r="V154" s="10"/>
+      <c r="W154" s="10"/>
+      <c r="X154" s="20" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="Y154" s="10" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="Z154" s="10" t="str">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+      <c r="AA154" s="10" t="str">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+      <c r="AB154" s="10" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AC154" s="10" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AD154" s="10" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="AE154" s="20" t="str">
+        <f t="shared" si="84"/>
+        <v/>
+      </c>
+      <c r="AF154" s="10" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AG154" s="10" t="str">
+        <f t="shared" si="86"/>
+        <v/>
+      </c>
+      <c r="AH154" s="10" t="str">
+        <f t="shared" si="87"/>
+        <v/>
+      </c>
+      <c r="AI154" s="10" t="str">
+        <f t="shared" si="88"/>
+        <v/>
+      </c>
+      <c r="AJ154" s="10" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AK154" s="10" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AL154" s="10" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AM154" s="10" t="str">
+        <f t="shared" si="92"/>
+        <v/>
+      </c>
+      <c r="AN154" s="10" t="str">
+        <f t="shared" si="93"/>
+        <v/>
+      </c>
+      <c r="AO154" s="10" t="str">
+        <f t="shared" si="94"/>
+        <v/>
+      </c>
+      <c r="AP154" s="10" t="str">
+        <f t="shared" si="95"/>
         <v/>
       </c>
     </row>
     <row r="155" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A155" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B155" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C155" s="17">
-        <v>3</v>
-      </c>
-      <c r="D155" s="38" t="s">
+      <c r="A155" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B155" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C155" s="10">
+        <v>4</v>
+      </c>
+      <c r="D155" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="E155" s="25"/>
-      <c r="F155" s="17"/>
-      <c r="G155" s="17"/>
-      <c r="H155" s="17"/>
-      <c r="I155" s="17"/>
-      <c r="J155" s="17"/>
-      <c r="K155" s="17"/>
-      <c r="L155" s="25"/>
-      <c r="M155" s="17"/>
-      <c r="N155" s="17"/>
-      <c r="O155" s="17"/>
-      <c r="P155" s="17"/>
-      <c r="Q155" s="17"/>
-      <c r="R155" s="17"/>
-      <c r="S155" s="17"/>
-      <c r="T155" s="17"/>
-      <c r="U155" s="17"/>
-      <c r="V155" s="17"/>
-      <c r="W155" s="17"/>
-      <c r="X155" s="25" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="Y155" s="17" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="Z155" s="17" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="AA155" s="17" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="AB155" s="17" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="AC155" s="17" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="AD155" s="17" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="AE155" s="25" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="AF155" s="17" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="AG155" s="17" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="AH155" s="17" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="AI155" s="17" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AJ155" s="17" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="AK155" s="17" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-      <c r="AL155" s="17" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="AM155" s="17" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="AN155" s="17" t="str">
-        <f t="shared" si="55"/>
-        <v/>
-      </c>
-      <c r="AO155" s="17" t="str">
-        <f t="shared" si="56"/>
-        <v/>
-      </c>
-      <c r="AP155" s="17" t="str">
-        <f t="shared" si="57"/>
+      <c r="E155" s="20"/>
+      <c r="F155" s="10"/>
+      <c r="G155" s="10"/>
+      <c r="H155" s="10"/>
+      <c r="I155" s="10"/>
+      <c r="J155" s="10"/>
+      <c r="K155" s="10"/>
+      <c r="L155" s="20"/>
+      <c r="M155" s="10"/>
+      <c r="N155" s="10"/>
+      <c r="O155" s="10"/>
+      <c r="P155" s="10"/>
+      <c r="Q155" s="10"/>
+      <c r="R155" s="10"/>
+      <c r="S155" s="10"/>
+      <c r="T155" s="10"/>
+      <c r="U155" s="10"/>
+      <c r="V155" s="10"/>
+      <c r="W155" s="10"/>
+      <c r="X155" s="20" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="Y155" s="10" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="Z155" s="10" t="str">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+      <c r="AA155" s="10" t="str">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+      <c r="AB155" s="10" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AC155" s="10" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AD155" s="10" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="AE155" s="20" t="str">
+        <f t="shared" si="84"/>
+        <v/>
+      </c>
+      <c r="AF155" s="10" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AG155" s="10" t="str">
+        <f t="shared" si="86"/>
+        <v/>
+      </c>
+      <c r="AH155" s="10" t="str">
+        <f t="shared" si="87"/>
+        <v/>
+      </c>
+      <c r="AI155" s="10" t="str">
+        <f t="shared" si="88"/>
+        <v/>
+      </c>
+      <c r="AJ155" s="10" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AK155" s="10" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AL155" s="10" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AM155" s="10" t="str">
+        <f t="shared" si="92"/>
+        <v/>
+      </c>
+      <c r="AN155" s="10" t="str">
+        <f t="shared" si="93"/>
+        <v/>
+      </c>
+      <c r="AO155" s="10" t="str">
+        <f t="shared" si="94"/>
+        <v/>
+      </c>
+      <c r="AP155" s="10" t="str">
+        <f t="shared" si="95"/>
         <v/>
       </c>
     </row>
     <row r="156" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A156" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B156" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C156" s="17">
-        <v>4</v>
-      </c>
-      <c r="D156" s="38" t="s">
+      <c r="A156" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B156" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C156" s="10">
+        <v>5</v>
+      </c>
+      <c r="D156" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="E156" s="25"/>
-      <c r="F156" s="17"/>
-      <c r="G156" s="17"/>
-      <c r="H156" s="17"/>
-      <c r="I156" s="17"/>
-      <c r="J156" s="17"/>
-      <c r="K156" s="17"/>
-      <c r="L156" s="25"/>
-      <c r="M156" s="17"/>
-      <c r="N156" s="17"/>
-      <c r="O156" s="17"/>
-      <c r="P156" s="17"/>
-      <c r="Q156" s="17"/>
-      <c r="R156" s="17"/>
-      <c r="S156" s="17"/>
-      <c r="T156" s="17"/>
-      <c r="U156" s="17"/>
-      <c r="V156" s="17"/>
-      <c r="W156" s="17"/>
-      <c r="X156" s="25" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="Y156" s="17" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="Z156" s="17" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="AA156" s="17" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="AB156" s="17" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="AC156" s="17" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="AD156" s="17" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="AE156" s="25" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="AF156" s="17" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="AG156" s="17" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="AH156" s="17" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="AI156" s="17" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AJ156" s="17" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="AK156" s="17" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-      <c r="AL156" s="17" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="AM156" s="17" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="AN156" s="17" t="str">
-        <f t="shared" si="55"/>
-        <v/>
-      </c>
-      <c r="AO156" s="17" t="str">
-        <f t="shared" si="56"/>
-        <v/>
-      </c>
-      <c r="AP156" s="17" t="str">
-        <f t="shared" si="57"/>
+      <c r="E156" s="20"/>
+      <c r="F156" s="10"/>
+      <c r="G156" s="10"/>
+      <c r="H156" s="10"/>
+      <c r="I156" s="10"/>
+      <c r="J156" s="10"/>
+      <c r="K156" s="10"/>
+      <c r="L156" s="20"/>
+      <c r="M156" s="10"/>
+      <c r="N156" s="10"/>
+      <c r="O156" s="10"/>
+      <c r="P156" s="10"/>
+      <c r="Q156" s="10"/>
+      <c r="R156" s="10"/>
+      <c r="S156" s="10"/>
+      <c r="T156" s="10"/>
+      <c r="U156" s="10"/>
+      <c r="V156" s="10"/>
+      <c r="W156" s="10"/>
+      <c r="X156" s="20" t="str">
+        <f t="shared" ref="X156:X157" si="115">IF(OR(ISBLANK(E156),ISBLANK($W156)),"",100*E156/$W156)</f>
+        <v/>
+      </c>
+      <c r="Y156" s="10" t="str">
+        <f t="shared" ref="Y156:Y157" si="116">IF(OR(ISBLANK(F156),ISBLANK($W156)),"",100*F156/$W156)</f>
+        <v/>
+      </c>
+      <c r="Z156" s="10" t="str">
+        <f t="shared" ref="Z156:Z157" si="117">IF(OR(ISBLANK(G156),ISBLANK($W156)),"",100*G156/$W156)</f>
+        <v/>
+      </c>
+      <c r="AA156" s="10" t="str">
+        <f t="shared" ref="AA156:AA157" si="118">IF(OR(ISBLANK(H156),ISBLANK($W156)),"",100*H156/$W156)</f>
+        <v/>
+      </c>
+      <c r="AB156" s="10" t="str">
+        <f t="shared" ref="AB156:AB157" si="119">IF(OR(ISBLANK(I156),ISBLANK($W156)),"",100*I156/$W156)</f>
+        <v/>
+      </c>
+      <c r="AC156" s="10" t="str">
+        <f t="shared" ref="AC156:AC157" si="120">IF(OR(ISBLANK(J156),ISBLANK($W156)),"",100*J156/$W156)</f>
+        <v/>
+      </c>
+      <c r="AD156" s="10" t="str">
+        <f t="shared" ref="AD156:AD157" si="121">IF(OR(ISBLANK(K156),ISBLANK($W156)),"",100*K156/$W156)</f>
+        <v/>
+      </c>
+      <c r="AE156" s="20" t="str">
+        <f t="shared" ref="AE156:AE157" si="122">IF(OR(ISBLANK(L156),ISBLANK($W156)),"",100*L156/$W156)</f>
+        <v/>
+      </c>
+      <c r="AF156" s="10" t="str">
+        <f t="shared" ref="AF156:AF157" si="123">IF(OR(ISBLANK(M156),ISBLANK($W156)),"",100*M156/$W156)</f>
+        <v/>
+      </c>
+      <c r="AG156" s="10" t="str">
+        <f t="shared" ref="AG156:AG157" si="124">IF(OR(ISBLANK(N156),ISBLANK($W156)),"",100*N156/$W156)</f>
+        <v/>
+      </c>
+      <c r="AH156" s="10" t="str">
+        <f t="shared" ref="AH156:AH157" si="125">IF(OR(ISBLANK(O156),ISBLANK($W156)),"",100*O156/$W156)</f>
+        <v/>
+      </c>
+      <c r="AI156" s="10" t="str">
+        <f t="shared" ref="AI156:AI157" si="126">IF(OR(ISBLANK(P156),ISBLANK($W156)),"",100*P156/$W156)</f>
+        <v/>
+      </c>
+      <c r="AJ156" s="10" t="str">
+        <f t="shared" ref="AJ156:AJ157" si="127">IF(OR(ISBLANK(Q156),ISBLANK($W156)),"",100*Q156/$W156)</f>
+        <v/>
+      </c>
+      <c r="AK156" s="10" t="str">
+        <f t="shared" ref="AK156:AK157" si="128">IF(OR(ISBLANK(R156),ISBLANK($W156)),"",100*R156/$W156)</f>
+        <v/>
+      </c>
+      <c r="AL156" s="10" t="str">
+        <f t="shared" ref="AL156:AL157" si="129">IF(OR(ISBLANK(S156),ISBLANK($W156)),"",100*S156/$W156)</f>
+        <v/>
+      </c>
+      <c r="AM156" s="10" t="str">
+        <f t="shared" ref="AM156:AM157" si="130">IF(OR(ISBLANK(T156),ISBLANK($W156)),"",100*T156/$W156)</f>
+        <v/>
+      </c>
+      <c r="AN156" s="10" t="str">
+        <f t="shared" ref="AN156:AN157" si="131">IF(OR(ISBLANK(U156),ISBLANK($W156)),"",100*U156/$W156)</f>
+        <v/>
+      </c>
+      <c r="AO156" s="10" t="str">
+        <f t="shared" ref="AO156:AO157" si="132">IF(OR(ISBLANK(V156),ISBLANK($W156)),"",100*V156/$W156)</f>
+        <v/>
+      </c>
+      <c r="AP156" s="10" t="str">
+        <f t="shared" ref="AP156:AP157" si="133">IF(OR(ISBLANK(W156),ISBLANK($W156)),"",100*W156/$W156)</f>
         <v/>
       </c>
     </row>
     <row r="157" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A157" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B157" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C157" s="17">
-        <v>5</v>
-      </c>
-      <c r="D157" s="38" t="s">
+      <c r="A157" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B157" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C157" s="10">
+        <v>6</v>
+      </c>
+      <c r="D157" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="E157" s="25"/>
-      <c r="F157" s="17"/>
-      <c r="G157" s="17"/>
-      <c r="H157" s="17"/>
-      <c r="I157" s="17"/>
-      <c r="J157" s="17"/>
-      <c r="K157" s="17"/>
-      <c r="L157" s="25"/>
-      <c r="M157" s="17"/>
-      <c r="N157" s="17"/>
-      <c r="O157" s="17"/>
-      <c r="P157" s="17"/>
-      <c r="Q157" s="17"/>
-      <c r="R157" s="17"/>
-      <c r="S157" s="17"/>
-      <c r="T157" s="17"/>
-      <c r="U157" s="17"/>
-      <c r="V157" s="17"/>
-      <c r="W157" s="17"/>
-      <c r="X157" s="25" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="Y157" s="17" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="Z157" s="17" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="AA157" s="17" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="AB157" s="17" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="AC157" s="17" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="AD157" s="17" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="AE157" s="25" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="AF157" s="17" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="AG157" s="17" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="AH157" s="17" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="AI157" s="17" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AJ157" s="17" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="AK157" s="17" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-      <c r="AL157" s="17" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="AM157" s="17" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="AN157" s="17" t="str">
-        <f t="shared" si="55"/>
-        <v/>
-      </c>
-      <c r="AO157" s="17" t="str">
-        <f t="shared" si="56"/>
-        <v/>
-      </c>
-      <c r="AP157" s="17" t="str">
-        <f t="shared" si="57"/>
+      <c r="E157" s="20"/>
+      <c r="F157" s="10"/>
+      <c r="G157" s="10"/>
+      <c r="H157" s="10"/>
+      <c r="I157" s="10"/>
+      <c r="J157" s="10"/>
+      <c r="K157" s="10"/>
+      <c r="L157" s="20"/>
+      <c r="M157" s="10"/>
+      <c r="N157" s="10"/>
+      <c r="O157" s="10"/>
+      <c r="P157" s="10"/>
+      <c r="Q157" s="10"/>
+      <c r="R157" s="10"/>
+      <c r="S157" s="10"/>
+      <c r="T157" s="10"/>
+      <c r="U157" s="10"/>
+      <c r="V157" s="10"/>
+      <c r="W157" s="10"/>
+      <c r="X157" s="20" t="str">
+        <f t="shared" si="115"/>
+        <v/>
+      </c>
+      <c r="Y157" s="10" t="str">
+        <f t="shared" si="116"/>
+        <v/>
+      </c>
+      <c r="Z157" s="10" t="str">
+        <f t="shared" si="117"/>
+        <v/>
+      </c>
+      <c r="AA157" s="10" t="str">
+        <f t="shared" si="118"/>
+        <v/>
+      </c>
+      <c r="AB157" s="10" t="str">
+        <f t="shared" si="119"/>
+        <v/>
+      </c>
+      <c r="AC157" s="10" t="str">
+        <f t="shared" si="120"/>
+        <v/>
+      </c>
+      <c r="AD157" s="10" t="str">
+        <f t="shared" si="121"/>
+        <v/>
+      </c>
+      <c r="AE157" s="20" t="str">
+        <f t="shared" si="122"/>
+        <v/>
+      </c>
+      <c r="AF157" s="10" t="str">
+        <f t="shared" si="123"/>
+        <v/>
+      </c>
+      <c r="AG157" s="10" t="str">
+        <f t="shared" si="124"/>
+        <v/>
+      </c>
+      <c r="AH157" s="10" t="str">
+        <f t="shared" si="125"/>
+        <v/>
+      </c>
+      <c r="AI157" s="10" t="str">
+        <f t="shared" si="126"/>
+        <v/>
+      </c>
+      <c r="AJ157" s="10" t="str">
+        <f t="shared" si="127"/>
+        <v/>
+      </c>
+      <c r="AK157" s="10" t="str">
+        <f t="shared" si="128"/>
+        <v/>
+      </c>
+      <c r="AL157" s="10" t="str">
+        <f t="shared" si="129"/>
+        <v/>
+      </c>
+      <c r="AM157" s="10" t="str">
+        <f t="shared" si="130"/>
+        <v/>
+      </c>
+      <c r="AN157" s="10" t="str">
+        <f t="shared" si="131"/>
+        <v/>
+      </c>
+      <c r="AO157" s="10" t="str">
+        <f t="shared" si="132"/>
+        <v/>
+      </c>
+      <c r="AP157" s="10" t="str">
+        <f t="shared" si="133"/>
         <v/>
       </c>
     </row>
@@ -18029,7 +18029,7 @@
         <v>33</v>
       </c>
       <c r="C158" s="17">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D158" s="38" t="s">
         <v>13</v>
@@ -18054,79 +18054,79 @@
       <c r="V158" s="17"/>
       <c r="W158" s="17"/>
       <c r="X158" s="25" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="Y158" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="Z158" s="17" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="AA158" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="80"/>
         <v/>
       </c>
       <c r="AB158" s="17" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="81"/>
         <v/>
       </c>
       <c r="AC158" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="AD158" s="17" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="AE158" s="25" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="AF158" s="17" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="AG158" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AH158" s="17" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="AI158" s="17" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AJ158" s="17" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AK158" s="17" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="AL158" s="17" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="AM158" s="17" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="AN158" s="17" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="93"/>
         <v/>
       </c>
       <c r="AO158" s="17" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="94"/>
         <v/>
       </c>
       <c r="AP158" s="17" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="95"/>
         <v/>
       </c>
     </row>
@@ -18138,7 +18138,7 @@
         <v>33</v>
       </c>
       <c r="C159" s="17">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D159" s="38" t="s">
         <v>13</v>
@@ -18163,79 +18163,79 @@
       <c r="V159" s="17"/>
       <c r="W159" s="17"/>
       <c r="X159" s="25" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="Y159" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="Z159" s="17" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="AA159" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="80"/>
         <v/>
       </c>
       <c r="AB159" s="17" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="81"/>
         <v/>
       </c>
       <c r="AC159" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="AD159" s="17" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="AE159" s="25" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="AF159" s="17" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="AG159" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AH159" s="17" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="AI159" s="17" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AJ159" s="17" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AK159" s="17" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="AL159" s="17" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="AM159" s="17" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="AN159" s="17" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="93"/>
         <v/>
       </c>
       <c r="AO159" s="17" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="94"/>
         <v/>
       </c>
       <c r="AP159" s="17" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="95"/>
         <v/>
       </c>
     </row>
@@ -18247,7 +18247,7 @@
         <v>33</v>
       </c>
       <c r="C160" s="17">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D160" s="38" t="s">
         <v>13</v>
@@ -18272,79 +18272,79 @@
       <c r="V160" s="17"/>
       <c r="W160" s="17"/>
       <c r="X160" s="25" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="Y160" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="Z160" s="17" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="AA160" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="80"/>
         <v/>
       </c>
       <c r="AB160" s="17" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="81"/>
         <v/>
       </c>
       <c r="AC160" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="AD160" s="17" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="AE160" s="25" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="AF160" s="17" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="AG160" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AH160" s="17" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="AI160" s="17" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AJ160" s="17" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AK160" s="17" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="AL160" s="17" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="AM160" s="17" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="AN160" s="17" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="93"/>
         <v/>
       </c>
       <c r="AO160" s="17" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="94"/>
         <v/>
       </c>
       <c r="AP160" s="17" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="95"/>
         <v/>
       </c>
     </row>
@@ -18356,7 +18356,7 @@
         <v>33</v>
       </c>
       <c r="C161" s="17">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D161" s="38" t="s">
         <v>13</v>
@@ -18381,79 +18381,79 @@
       <c r="V161" s="17"/>
       <c r="W161" s="17"/>
       <c r="X161" s="25" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="Y161" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="Z161" s="17" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="AA161" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="80"/>
         <v/>
       </c>
       <c r="AB161" s="17" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="81"/>
         <v/>
       </c>
       <c r="AC161" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="AD161" s="17" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="AE161" s="25" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="AF161" s="17" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="AG161" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AH161" s="17" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="AI161" s="17" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AJ161" s="17" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AK161" s="17" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="AL161" s="17" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="AM161" s="17" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="AN161" s="17" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="93"/>
         <v/>
       </c>
       <c r="AO161" s="17" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="94"/>
         <v/>
       </c>
       <c r="AP161" s="17" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="95"/>
         <v/>
       </c>
     </row>
@@ -18465,7 +18465,7 @@
         <v>33</v>
       </c>
       <c r="C162" s="17">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D162" s="38" t="s">
         <v>13</v>
@@ -18490,1169 +18490,1169 @@
       <c r="V162" s="17"/>
       <c r="W162" s="17"/>
       <c r="X162" s="25" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="Y162" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="Z162" s="17" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="AA162" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="80"/>
         <v/>
       </c>
       <c r="AB162" s="17" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="81"/>
         <v/>
       </c>
       <c r="AC162" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="AD162" s="17" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="AE162" s="25" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="AF162" s="17" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="AG162" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AH162" s="17" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="AI162" s="17" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AJ162" s="17" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AK162" s="17" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="AL162" s="17" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="AM162" s="17" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="AN162" s="17" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="93"/>
         <v/>
       </c>
       <c r="AO162" s="17" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="94"/>
         <v/>
       </c>
       <c r="AP162" s="17" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="95"/>
         <v/>
       </c>
     </row>
     <row r="163" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A163" s="10" t="s">
+      <c r="A163" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B163" s="10" t="s">
+      <c r="B163" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C163" s="17">
+        <v>6</v>
+      </c>
+      <c r="D163" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E163" s="25"/>
+      <c r="F163" s="17"/>
+      <c r="G163" s="17"/>
+      <c r="H163" s="17"/>
+      <c r="I163" s="17"/>
+      <c r="J163" s="17"/>
+      <c r="K163" s="17"/>
+      <c r="L163" s="25"/>
+      <c r="M163" s="17"/>
+      <c r="N163" s="17"/>
+      <c r="O163" s="17"/>
+      <c r="P163" s="17"/>
+      <c r="Q163" s="17"/>
+      <c r="R163" s="17"/>
+      <c r="S163" s="17"/>
+      <c r="T163" s="17"/>
+      <c r="U163" s="17"/>
+      <c r="V163" s="17"/>
+      <c r="W163" s="17"/>
+      <c r="X163" s="25" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="Y163" s="17" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="Z163" s="17" t="str">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+      <c r="AA163" s="17" t="str">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+      <c r="AB163" s="17" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AC163" s="17" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AD163" s="17" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="AE163" s="25" t="str">
+        <f t="shared" si="84"/>
+        <v/>
+      </c>
+      <c r="AF163" s="17" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AG163" s="17" t="str">
+        <f t="shared" si="86"/>
+        <v/>
+      </c>
+      <c r="AH163" s="17" t="str">
+        <f t="shared" si="87"/>
+        <v/>
+      </c>
+      <c r="AI163" s="17" t="str">
+        <f t="shared" si="88"/>
+        <v/>
+      </c>
+      <c r="AJ163" s="17" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AK163" s="17" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AL163" s="17" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AM163" s="17" t="str">
+        <f t="shared" si="92"/>
+        <v/>
+      </c>
+      <c r="AN163" s="17" t="str">
+        <f t="shared" si="93"/>
+        <v/>
+      </c>
+      <c r="AO163" s="17" t="str">
+        <f t="shared" si="94"/>
+        <v/>
+      </c>
+      <c r="AP163" s="17" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A164" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B164" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C164" s="17">
+        <v>7</v>
+      </c>
+      <c r="D164" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E164" s="25"/>
+      <c r="F164" s="17"/>
+      <c r="G164" s="17"/>
+      <c r="H164" s="17"/>
+      <c r="I164" s="17"/>
+      <c r="J164" s="17"/>
+      <c r="K164" s="17"/>
+      <c r="L164" s="25"/>
+      <c r="M164" s="17"/>
+      <c r="N164" s="17"/>
+      <c r="O164" s="17"/>
+      <c r="P164" s="17"/>
+      <c r="Q164" s="17"/>
+      <c r="R164" s="17"/>
+      <c r="S164" s="17"/>
+      <c r="T164" s="17"/>
+      <c r="U164" s="17"/>
+      <c r="V164" s="17"/>
+      <c r="W164" s="17"/>
+      <c r="X164" s="25" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="Y164" s="17" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="Z164" s="17" t="str">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+      <c r="AA164" s="17" t="str">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+      <c r="AB164" s="17" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AC164" s="17" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AD164" s="17" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="AE164" s="25" t="str">
+        <f t="shared" si="84"/>
+        <v/>
+      </c>
+      <c r="AF164" s="17" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AG164" s="17" t="str">
+        <f t="shared" si="86"/>
+        <v/>
+      </c>
+      <c r="AH164" s="17" t="str">
+        <f t="shared" si="87"/>
+        <v/>
+      </c>
+      <c r="AI164" s="17" t="str">
+        <f t="shared" si="88"/>
+        <v/>
+      </c>
+      <c r="AJ164" s="17" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AK164" s="17" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AL164" s="17" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AM164" s="17" t="str">
+        <f t="shared" si="92"/>
+        <v/>
+      </c>
+      <c r="AN164" s="17" t="str">
+        <f t="shared" si="93"/>
+        <v/>
+      </c>
+      <c r="AO164" s="17" t="str">
+        <f t="shared" si="94"/>
+        <v/>
+      </c>
+      <c r="AP164" s="17" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A165" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B165" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C165" s="17">
+        <v>8</v>
+      </c>
+      <c r="D165" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E165" s="25"/>
+      <c r="F165" s="17"/>
+      <c r="G165" s="17"/>
+      <c r="H165" s="17"/>
+      <c r="I165" s="17"/>
+      <c r="J165" s="17"/>
+      <c r="K165" s="17"/>
+      <c r="L165" s="25"/>
+      <c r="M165" s="17"/>
+      <c r="N165" s="17"/>
+      <c r="O165" s="17"/>
+      <c r="P165" s="17"/>
+      <c r="Q165" s="17"/>
+      <c r="R165" s="17"/>
+      <c r="S165" s="17"/>
+      <c r="T165" s="17"/>
+      <c r="U165" s="17"/>
+      <c r="V165" s="17"/>
+      <c r="W165" s="17"/>
+      <c r="X165" s="25" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="Y165" s="17" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="Z165" s="17" t="str">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+      <c r="AA165" s="17" t="str">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+      <c r="AB165" s="17" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AC165" s="17" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AD165" s="17" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="AE165" s="25" t="str">
+        <f t="shared" si="84"/>
+        <v/>
+      </c>
+      <c r="AF165" s="17" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AG165" s="17" t="str">
+        <f t="shared" si="86"/>
+        <v/>
+      </c>
+      <c r="AH165" s="17" t="str">
+        <f t="shared" si="87"/>
+        <v/>
+      </c>
+      <c r="AI165" s="17" t="str">
+        <f t="shared" si="88"/>
+        <v/>
+      </c>
+      <c r="AJ165" s="17" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AK165" s="17" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AL165" s="17" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AM165" s="17" t="str">
+        <f t="shared" si="92"/>
+        <v/>
+      </c>
+      <c r="AN165" s="17" t="str">
+        <f t="shared" si="93"/>
+        <v/>
+      </c>
+      <c r="AO165" s="17" t="str">
+        <f t="shared" si="94"/>
+        <v/>
+      </c>
+      <c r="AP165" s="17" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A166" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B166" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C166" s="17">
+        <v>9</v>
+      </c>
+      <c r="D166" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E166" s="25"/>
+      <c r="F166" s="17"/>
+      <c r="G166" s="17"/>
+      <c r="H166" s="17"/>
+      <c r="I166" s="17"/>
+      <c r="J166" s="17"/>
+      <c r="K166" s="17"/>
+      <c r="L166" s="25"/>
+      <c r="M166" s="17"/>
+      <c r="N166" s="17"/>
+      <c r="O166" s="17"/>
+      <c r="P166" s="17"/>
+      <c r="Q166" s="17"/>
+      <c r="R166" s="17"/>
+      <c r="S166" s="17"/>
+      <c r="T166" s="17"/>
+      <c r="U166" s="17"/>
+      <c r="V166" s="17"/>
+      <c r="W166" s="17"/>
+      <c r="X166" s="25" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="Y166" s="17" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="Z166" s="17" t="str">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+      <c r="AA166" s="17" t="str">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+      <c r="AB166" s="17" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AC166" s="17" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AD166" s="17" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="AE166" s="25" t="str">
+        <f t="shared" si="84"/>
+        <v/>
+      </c>
+      <c r="AF166" s="17" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AG166" s="17" t="str">
+        <f t="shared" si="86"/>
+        <v/>
+      </c>
+      <c r="AH166" s="17" t="str">
+        <f t="shared" si="87"/>
+        <v/>
+      </c>
+      <c r="AI166" s="17" t="str">
+        <f t="shared" si="88"/>
+        <v/>
+      </c>
+      <c r="AJ166" s="17" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AK166" s="17" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AL166" s="17" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AM166" s="17" t="str">
+        <f t="shared" si="92"/>
+        <v/>
+      </c>
+      <c r="AN166" s="17" t="str">
+        <f t="shared" si="93"/>
+        <v/>
+      </c>
+      <c r="AO166" s="17" t="str">
+        <f t="shared" si="94"/>
+        <v/>
+      </c>
+      <c r="AP166" s="17" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A167" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B167" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C167" s="17">
+        <v>10</v>
+      </c>
+      <c r="D167" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E167" s="25"/>
+      <c r="F167" s="17"/>
+      <c r="G167" s="17"/>
+      <c r="H167" s="17"/>
+      <c r="I167" s="17"/>
+      <c r="J167" s="17"/>
+      <c r="K167" s="17"/>
+      <c r="L167" s="25"/>
+      <c r="M167" s="17"/>
+      <c r="N167" s="17"/>
+      <c r="O167" s="17"/>
+      <c r="P167" s="17"/>
+      <c r="Q167" s="17"/>
+      <c r="R167" s="17"/>
+      <c r="S167" s="17"/>
+      <c r="T167" s="17"/>
+      <c r="U167" s="17"/>
+      <c r="V167" s="17"/>
+      <c r="W167" s="17"/>
+      <c r="X167" s="25" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="Y167" s="17" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="Z167" s="17" t="str">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+      <c r="AA167" s="17" t="str">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+      <c r="AB167" s="17" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AC167" s="17" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AD167" s="17" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="AE167" s="25" t="str">
+        <f t="shared" si="84"/>
+        <v/>
+      </c>
+      <c r="AF167" s="17" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AG167" s="17" t="str">
+        <f t="shared" si="86"/>
+        <v/>
+      </c>
+      <c r="AH167" s="17" t="str">
+        <f t="shared" si="87"/>
+        <v/>
+      </c>
+      <c r="AI167" s="17" t="str">
+        <f t="shared" si="88"/>
+        <v/>
+      </c>
+      <c r="AJ167" s="17" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AK167" s="17" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AL167" s="17" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AM167" s="17" t="str">
+        <f t="shared" si="92"/>
+        <v/>
+      </c>
+      <c r="AN167" s="17" t="str">
+        <f t="shared" si="93"/>
+        <v/>
+      </c>
+      <c r="AO167" s="17" t="str">
+        <f t="shared" si="94"/>
+        <v/>
+      </c>
+      <c r="AP167" s="17" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A168" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B168" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C163" s="10">
+      <c r="C168" s="10">
         <v>1</v>
       </c>
-      <c r="D163" s="32" t="s">
+      <c r="D168" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="E163" s="20"/>
-      <c r="F163" s="10"/>
-      <c r="G163" s="10"/>
-      <c r="H163" s="10"/>
-      <c r="I163" s="10"/>
-      <c r="J163" s="10"/>
-      <c r="K163" s="10"/>
-      <c r="L163" s="20"/>
-      <c r="M163" s="10"/>
-      <c r="N163" s="10"/>
-      <c r="O163" s="10"/>
-      <c r="P163" s="10"/>
-      <c r="Q163" s="10"/>
-      <c r="R163" s="10"/>
-      <c r="S163" s="10"/>
-      <c r="T163" s="10"/>
-      <c r="U163" s="10"/>
-      <c r="V163" s="10"/>
-      <c r="W163" s="10"/>
-      <c r="X163" s="20" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="Y163" s="10" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="Z163" s="10" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="AA163" s="10" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="AB163" s="10" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="AC163" s="10" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="AD163" s="10" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="AE163" s="20" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="AF163" s="10" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="AG163" s="10" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="AH163" s="10" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="AI163" s="10" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AJ163" s="10" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="AK163" s="10" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-      <c r="AL163" s="10" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="AM163" s="10" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="AN163" s="10" t="str">
-        <f t="shared" si="55"/>
-        <v/>
-      </c>
-      <c r="AO163" s="10" t="str">
-        <f t="shared" si="56"/>
-        <v/>
-      </c>
-      <c r="AP163" s="10" t="str">
-        <f t="shared" si="57"/>
-        <v/>
-      </c>
-    </row>
-    <row r="164" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A164" s="10" t="s">
+      <c r="E168" s="20"/>
+      <c r="F168" s="10"/>
+      <c r="G168" s="10"/>
+      <c r="H168" s="10"/>
+      <c r="I168" s="10"/>
+      <c r="J168" s="10"/>
+      <c r="K168" s="10"/>
+      <c r="L168" s="20"/>
+      <c r="M168" s="10"/>
+      <c r="N168" s="10"/>
+      <c r="O168" s="10"/>
+      <c r="P168" s="10"/>
+      <c r="Q168" s="10"/>
+      <c r="R168" s="10"/>
+      <c r="S168" s="10"/>
+      <c r="T168" s="10"/>
+      <c r="U168" s="10"/>
+      <c r="V168" s="10"/>
+      <c r="W168" s="10"/>
+      <c r="X168" s="20" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="Y168" s="10" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="Z168" s="10" t="str">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+      <c r="AA168" s="10" t="str">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+      <c r="AB168" s="10" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AC168" s="10" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AD168" s="10" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="AE168" s="20" t="str">
+        <f t="shared" si="84"/>
+        <v/>
+      </c>
+      <c r="AF168" s="10" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AG168" s="10" t="str">
+        <f t="shared" si="86"/>
+        <v/>
+      </c>
+      <c r="AH168" s="10" t="str">
+        <f t="shared" si="87"/>
+        <v/>
+      </c>
+      <c r="AI168" s="10" t="str">
+        <f t="shared" si="88"/>
+        <v/>
+      </c>
+      <c r="AJ168" s="10" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AK168" s="10" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AL168" s="10" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AM168" s="10" t="str">
+        <f t="shared" si="92"/>
+        <v/>
+      </c>
+      <c r="AN168" s="10" t="str">
+        <f t="shared" si="93"/>
+        <v/>
+      </c>
+      <c r="AO168" s="10" t="str">
+        <f t="shared" si="94"/>
+        <v/>
+      </c>
+      <c r="AP168" s="10" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A169" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B164" s="10" t="s">
+      <c r="B169" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C164" s="10">
+      <c r="C169" s="10">
         <v>2</v>
       </c>
-      <c r="D164" s="32" t="s">
+      <c r="D169" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="E164" s="20"/>
-      <c r="F164" s="10"/>
-      <c r="G164" s="10"/>
-      <c r="H164" s="10"/>
-      <c r="I164" s="10"/>
-      <c r="J164" s="10"/>
-      <c r="K164" s="10"/>
-      <c r="L164" s="20"/>
-      <c r="M164" s="10"/>
-      <c r="N164" s="10"/>
-      <c r="O164" s="10"/>
-      <c r="P164" s="10"/>
-      <c r="Q164" s="10"/>
-      <c r="R164" s="10"/>
-      <c r="S164" s="10"/>
-      <c r="T164" s="10"/>
-      <c r="U164" s="10"/>
-      <c r="V164" s="10"/>
-      <c r="W164" s="10"/>
-      <c r="X164" s="20" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="Y164" s="10" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="Z164" s="10" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="AA164" s="10" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="AB164" s="10" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="AC164" s="10" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="AD164" s="10" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="AE164" s="20" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="AF164" s="10" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="AG164" s="10" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="AH164" s="10" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="AI164" s="10" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AJ164" s="10" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="AK164" s="10" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-      <c r="AL164" s="10" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="AM164" s="10" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="AN164" s="10" t="str">
-        <f t="shared" si="55"/>
-        <v/>
-      </c>
-      <c r="AO164" s="10" t="str">
-        <f t="shared" si="56"/>
-        <v/>
-      </c>
-      <c r="AP164" s="10" t="str">
-        <f t="shared" si="57"/>
-        <v/>
-      </c>
-    </row>
-    <row r="165" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A165" s="10" t="s">
+      <c r="E169" s="20"/>
+      <c r="F169" s="10"/>
+      <c r="G169" s="10"/>
+      <c r="H169" s="10"/>
+      <c r="I169" s="10"/>
+      <c r="J169" s="10"/>
+      <c r="K169" s="10"/>
+      <c r="L169" s="20"/>
+      <c r="M169" s="10"/>
+      <c r="N169" s="10"/>
+      <c r="O169" s="10"/>
+      <c r="P169" s="10"/>
+      <c r="Q169" s="10"/>
+      <c r="R169" s="10"/>
+      <c r="S169" s="10"/>
+      <c r="T169" s="10"/>
+      <c r="U169" s="10"/>
+      <c r="V169" s="10"/>
+      <c r="W169" s="10"/>
+      <c r="X169" s="20" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="Y169" s="10" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="Z169" s="10" t="str">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+      <c r="AA169" s="10" t="str">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+      <c r="AB169" s="10" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AC169" s="10" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AD169" s="10" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="AE169" s="20" t="str">
+        <f t="shared" si="84"/>
+        <v/>
+      </c>
+      <c r="AF169" s="10" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AG169" s="10" t="str">
+        <f t="shared" si="86"/>
+        <v/>
+      </c>
+      <c r="AH169" s="10" t="str">
+        <f t="shared" si="87"/>
+        <v/>
+      </c>
+      <c r="AI169" s="10" t="str">
+        <f t="shared" si="88"/>
+        <v/>
+      </c>
+      <c r="AJ169" s="10" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AK169" s="10" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AL169" s="10" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AM169" s="10" t="str">
+        <f t="shared" si="92"/>
+        <v/>
+      </c>
+      <c r="AN169" s="10" t="str">
+        <f t="shared" si="93"/>
+        <v/>
+      </c>
+      <c r="AO169" s="10" t="str">
+        <f t="shared" si="94"/>
+        <v/>
+      </c>
+      <c r="AP169" s="10" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A170" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B165" s="10" t="s">
+      <c r="B170" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C165" s="10">
+      <c r="C170" s="10">
         <v>3</v>
       </c>
-      <c r="D165" s="32" t="s">
+      <c r="D170" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="E165" s="20"/>
-      <c r="F165" s="10"/>
-      <c r="G165" s="10"/>
-      <c r="H165" s="10"/>
-      <c r="I165" s="10"/>
-      <c r="J165" s="10"/>
-      <c r="K165" s="10"/>
-      <c r="L165" s="20"/>
-      <c r="M165" s="10"/>
-      <c r="N165" s="10"/>
-      <c r="O165" s="10"/>
-      <c r="P165" s="10"/>
-      <c r="Q165" s="10"/>
-      <c r="R165" s="10"/>
-      <c r="S165" s="10"/>
-      <c r="T165" s="10"/>
-      <c r="U165" s="10"/>
-      <c r="V165" s="10"/>
-      <c r="W165" s="10"/>
-      <c r="X165" s="20" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="Y165" s="10" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="Z165" s="10" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="AA165" s="10" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="AB165" s="10" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="AC165" s="10" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="AD165" s="10" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="AE165" s="20" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="AF165" s="10" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="AG165" s="10" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="AH165" s="10" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="AI165" s="10" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AJ165" s="10" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="AK165" s="10" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-      <c r="AL165" s="10" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="AM165" s="10" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="AN165" s="10" t="str">
-        <f t="shared" si="55"/>
-        <v/>
-      </c>
-      <c r="AO165" s="10" t="str">
-        <f t="shared" si="56"/>
-        <v/>
-      </c>
-      <c r="AP165" s="10" t="str">
-        <f t="shared" si="57"/>
-        <v/>
-      </c>
-    </row>
-    <row r="166" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A166" s="10" t="s">
+      <c r="E170" s="20"/>
+      <c r="F170" s="10"/>
+      <c r="G170" s="10"/>
+      <c r="H170" s="10"/>
+      <c r="I170" s="10"/>
+      <c r="J170" s="10"/>
+      <c r="K170" s="10"/>
+      <c r="L170" s="20"/>
+      <c r="M170" s="10"/>
+      <c r="N170" s="10"/>
+      <c r="O170" s="10"/>
+      <c r="P170" s="10"/>
+      <c r="Q170" s="10"/>
+      <c r="R170" s="10"/>
+      <c r="S170" s="10"/>
+      <c r="T170" s="10"/>
+      <c r="U170" s="10"/>
+      <c r="V170" s="10"/>
+      <c r="W170" s="10"/>
+      <c r="X170" s="20" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="Y170" s="10" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="Z170" s="10" t="str">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+      <c r="AA170" s="10" t="str">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+      <c r="AB170" s="10" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AC170" s="10" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AD170" s="10" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="AE170" s="20" t="str">
+        <f t="shared" si="84"/>
+        <v/>
+      </c>
+      <c r="AF170" s="10" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AG170" s="10" t="str">
+        <f t="shared" si="86"/>
+        <v/>
+      </c>
+      <c r="AH170" s="10" t="str">
+        <f t="shared" si="87"/>
+        <v/>
+      </c>
+      <c r="AI170" s="10" t="str">
+        <f t="shared" si="88"/>
+        <v/>
+      </c>
+      <c r="AJ170" s="10" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AK170" s="10" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AL170" s="10" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AM170" s="10" t="str">
+        <f t="shared" si="92"/>
+        <v/>
+      </c>
+      <c r="AN170" s="10" t="str">
+        <f t="shared" si="93"/>
+        <v/>
+      </c>
+      <c r="AO170" s="10" t="str">
+        <f t="shared" si="94"/>
+        <v/>
+      </c>
+      <c r="AP170" s="10" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A171" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B166" s="10" t="s">
+      <c r="B171" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C166" s="10">
+      <c r="C171" s="10">
         <v>4</v>
       </c>
-      <c r="D166" s="32" t="s">
+      <c r="D171" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="E166" s="20"/>
-      <c r="F166" s="10"/>
-      <c r="G166" s="10"/>
-      <c r="H166" s="10"/>
-      <c r="I166" s="10"/>
-      <c r="J166" s="10"/>
-      <c r="K166" s="10"/>
-      <c r="L166" s="20"/>
-      <c r="M166" s="10"/>
-      <c r="N166" s="10"/>
-      <c r="O166" s="10"/>
-      <c r="P166" s="10"/>
-      <c r="Q166" s="10"/>
-      <c r="R166" s="10"/>
-      <c r="S166" s="10"/>
-      <c r="T166" s="10"/>
-      <c r="U166" s="10"/>
-      <c r="V166" s="10"/>
-      <c r="W166" s="10"/>
-      <c r="X166" s="20" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="Y166" s="10" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="Z166" s="10" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="AA166" s="10" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="AB166" s="10" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="AC166" s="10" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="AD166" s="10" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="AE166" s="20" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="AF166" s="10" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="AG166" s="10" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="AH166" s="10" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="AI166" s="10" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AJ166" s="10" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="AK166" s="10" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-      <c r="AL166" s="10" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="AM166" s="10" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="AN166" s="10" t="str">
-        <f t="shared" si="55"/>
-        <v/>
-      </c>
-      <c r="AO166" s="10" t="str">
-        <f t="shared" si="56"/>
-        <v/>
-      </c>
-      <c r="AP166" s="10" t="str">
-        <f t="shared" si="57"/>
-        <v/>
-      </c>
-    </row>
-    <row r="167" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A167" s="10" t="s">
+      <c r="E171" s="20"/>
+      <c r="F171" s="10"/>
+      <c r="G171" s="10"/>
+      <c r="H171" s="10"/>
+      <c r="I171" s="10"/>
+      <c r="J171" s="10"/>
+      <c r="K171" s="10"/>
+      <c r="L171" s="20"/>
+      <c r="M171" s="10"/>
+      <c r="N171" s="10"/>
+      <c r="O171" s="10"/>
+      <c r="P171" s="10"/>
+      <c r="Q171" s="10"/>
+      <c r="R171" s="10"/>
+      <c r="S171" s="10"/>
+      <c r="T171" s="10"/>
+      <c r="U171" s="10"/>
+      <c r="V171" s="10"/>
+      <c r="W171" s="10"/>
+      <c r="X171" s="20" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="Y171" s="10" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="Z171" s="10" t="str">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+      <c r="AA171" s="10" t="str">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+      <c r="AB171" s="10" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AC171" s="10" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AD171" s="10" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="AE171" s="20" t="str">
+        <f t="shared" si="84"/>
+        <v/>
+      </c>
+      <c r="AF171" s="10" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AG171" s="10" t="str">
+        <f t="shared" si="86"/>
+        <v/>
+      </c>
+      <c r="AH171" s="10" t="str">
+        <f t="shared" si="87"/>
+        <v/>
+      </c>
+      <c r="AI171" s="10" t="str">
+        <f t="shared" si="88"/>
+        <v/>
+      </c>
+      <c r="AJ171" s="10" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AK171" s="10" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AL171" s="10" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AM171" s="10" t="str">
+        <f t="shared" si="92"/>
+        <v/>
+      </c>
+      <c r="AN171" s="10" t="str">
+        <f t="shared" si="93"/>
+        <v/>
+      </c>
+      <c r="AO171" s="10" t="str">
+        <f t="shared" si="94"/>
+        <v/>
+      </c>
+      <c r="AP171" s="10" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A172" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B167" s="10" t="s">
+      <c r="B172" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C167" s="10">
+      <c r="C172" s="10">
         <v>5</v>
       </c>
-      <c r="D167" s="32" t="s">
+      <c r="D172" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="E167" s="20"/>
-      <c r="F167" s="10"/>
-      <c r="G167" s="10"/>
-      <c r="H167" s="10"/>
-      <c r="I167" s="10"/>
-      <c r="J167" s="10"/>
-      <c r="K167" s="10"/>
-      <c r="L167" s="20"/>
-      <c r="M167" s="10"/>
-      <c r="N167" s="10"/>
-      <c r="O167" s="10"/>
-      <c r="P167" s="10"/>
-      <c r="Q167" s="10"/>
-      <c r="R167" s="10"/>
-      <c r="S167" s="10"/>
-      <c r="T167" s="10"/>
-      <c r="U167" s="10"/>
-      <c r="V167" s="10"/>
-      <c r="W167" s="10"/>
-      <c r="X167" s="20" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="Y167" s="10" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="Z167" s="10" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="AA167" s="10" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="AB167" s="10" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="AC167" s="10" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="AD167" s="10" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="AE167" s="20" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="AF167" s="10" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="AG167" s="10" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="AH167" s="10" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="AI167" s="10" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AJ167" s="10" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="AK167" s="10" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-      <c r="AL167" s="10" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="AM167" s="10" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="AN167" s="10" t="str">
-        <f t="shared" si="55"/>
-        <v/>
-      </c>
-      <c r="AO167" s="10" t="str">
-        <f t="shared" si="56"/>
-        <v/>
-      </c>
-      <c r="AP167" s="10" t="str">
-        <f t="shared" si="57"/>
-        <v/>
-      </c>
-    </row>
-    <row r="168" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A168" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B168" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C168" s="18">
-        <v>1</v>
-      </c>
-      <c r="D168" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="E168" s="26"/>
-      <c r="F168" s="18"/>
-      <c r="G168" s="18"/>
-      <c r="H168" s="18"/>
-      <c r="I168" s="18"/>
-      <c r="J168" s="18"/>
-      <c r="K168" s="18"/>
-      <c r="L168" s="26"/>
-      <c r="M168" s="18"/>
-      <c r="N168" s="18"/>
-      <c r="O168" s="18"/>
-      <c r="P168" s="18"/>
-      <c r="Q168" s="18"/>
-      <c r="R168" s="18"/>
-      <c r="S168" s="18"/>
-      <c r="T168" s="18"/>
-      <c r="U168" s="18"/>
-      <c r="V168" s="18"/>
-      <c r="W168" s="18"/>
-      <c r="X168" s="26" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="Y168" s="18" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="Z168" s="18" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="AA168" s="18" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="AB168" s="18" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="AC168" s="18" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="AD168" s="18" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="AE168" s="26" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="AF168" s="18" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="AG168" s="18" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="AH168" s="18" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="AI168" s="18" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AJ168" s="18" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="AK168" s="18" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-      <c r="AL168" s="18" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="AM168" s="18" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="AN168" s="18" t="str">
-        <f t="shared" si="55"/>
-        <v/>
-      </c>
-      <c r="AO168" s="18" t="str">
-        <f t="shared" si="56"/>
-        <v/>
-      </c>
-      <c r="AP168" s="18" t="str">
-        <f t="shared" si="57"/>
-        <v/>
-      </c>
-    </row>
-    <row r="169" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A169" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B169" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C169" s="18">
-        <v>2</v>
-      </c>
-      <c r="D169" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="E169" s="26"/>
-      <c r="F169" s="18"/>
-      <c r="G169" s="18"/>
-      <c r="H169" s="18"/>
-      <c r="I169" s="18"/>
-      <c r="J169" s="18"/>
-      <c r="K169" s="18"/>
-      <c r="L169" s="26"/>
-      <c r="M169" s="18"/>
-      <c r="N169" s="18"/>
-      <c r="O169" s="18"/>
-      <c r="P169" s="18"/>
-      <c r="Q169" s="18"/>
-      <c r="R169" s="18"/>
-      <c r="S169" s="18"/>
-      <c r="T169" s="18"/>
-      <c r="U169" s="18"/>
-      <c r="V169" s="18"/>
-      <c r="W169" s="18"/>
-      <c r="X169" s="26" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="Y169" s="18" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="Z169" s="18" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="AA169" s="18" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="AB169" s="18" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="AC169" s="18" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="AD169" s="18" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="AE169" s="26" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="AF169" s="18" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="AG169" s="18" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="AH169" s="18" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="AI169" s="18" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AJ169" s="18" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="AK169" s="18" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-      <c r="AL169" s="18" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="AM169" s="18" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="AN169" s="18" t="str">
-        <f t="shared" si="55"/>
-        <v/>
-      </c>
-      <c r="AO169" s="18" t="str">
-        <f t="shared" si="56"/>
-        <v/>
-      </c>
-      <c r="AP169" s="18" t="str">
-        <f t="shared" si="57"/>
-        <v/>
-      </c>
-    </row>
-    <row r="170" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A170" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B170" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C170" s="18">
-        <v>3</v>
-      </c>
-      <c r="D170" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="E170" s="26"/>
-      <c r="F170" s="18"/>
-      <c r="G170" s="18"/>
-      <c r="H170" s="18"/>
-      <c r="I170" s="18"/>
-      <c r="J170" s="18"/>
-      <c r="K170" s="18"/>
-      <c r="L170" s="26"/>
-      <c r="M170" s="18"/>
-      <c r="N170" s="18"/>
-      <c r="O170" s="18"/>
-      <c r="P170" s="18"/>
-      <c r="Q170" s="18"/>
-      <c r="R170" s="18"/>
-      <c r="S170" s="18"/>
-      <c r="T170" s="18"/>
-      <c r="U170" s="18"/>
-      <c r="V170" s="18"/>
-      <c r="W170" s="18"/>
-      <c r="X170" s="26" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="Y170" s="18" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="Z170" s="18" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="AA170" s="18" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="AB170" s="18" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="AC170" s="18" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="AD170" s="18" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="AE170" s="26" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="AF170" s="18" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="AG170" s="18" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="AH170" s="18" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="AI170" s="18" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AJ170" s="18" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="AK170" s="18" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-      <c r="AL170" s="18" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="AM170" s="18" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="AN170" s="18" t="str">
-        <f t="shared" si="55"/>
-        <v/>
-      </c>
-      <c r="AO170" s="18" t="str">
-        <f t="shared" si="56"/>
-        <v/>
-      </c>
-      <c r="AP170" s="18" t="str">
-        <f t="shared" si="57"/>
-        <v/>
-      </c>
-    </row>
-    <row r="171" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A171" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B171" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C171" s="18">
-        <v>4</v>
-      </c>
-      <c r="D171" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="E171" s="26"/>
-      <c r="F171" s="18"/>
-      <c r="G171" s="18"/>
-      <c r="H171" s="18"/>
-      <c r="I171" s="18"/>
-      <c r="J171" s="18"/>
-      <c r="K171" s="18"/>
-      <c r="L171" s="26"/>
-      <c r="M171" s="18"/>
-      <c r="N171" s="18"/>
-      <c r="O171" s="18"/>
-      <c r="P171" s="18"/>
-      <c r="Q171" s="18"/>
-      <c r="R171" s="18"/>
-      <c r="S171" s="18"/>
-      <c r="T171" s="18"/>
-      <c r="U171" s="18"/>
-      <c r="V171" s="18"/>
-      <c r="W171" s="18"/>
-      <c r="X171" s="26" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="Y171" s="18" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="Z171" s="18" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="AA171" s="18" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="AB171" s="18" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="AC171" s="18" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="AD171" s="18" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="AE171" s="26" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="AF171" s="18" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="AG171" s="18" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="AH171" s="18" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="AI171" s="18" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AJ171" s="18" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="AK171" s="18" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-      <c r="AL171" s="18" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="AM171" s="18" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="AN171" s="18" t="str">
-        <f t="shared" si="55"/>
-        <v/>
-      </c>
-      <c r="AO171" s="18" t="str">
-        <f t="shared" si="56"/>
-        <v/>
-      </c>
-      <c r="AP171" s="18" t="str">
-        <f t="shared" si="57"/>
-        <v/>
-      </c>
-    </row>
-    <row r="172" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A172" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B172" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C172" s="18">
-        <v>5</v>
-      </c>
-      <c r="D172" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="E172" s="26"/>
-      <c r="F172" s="18"/>
-      <c r="G172" s="18"/>
-      <c r="H172" s="18"/>
-      <c r="I172" s="18"/>
-      <c r="J172" s="18"/>
-      <c r="K172" s="18"/>
-      <c r="L172" s="26"/>
-      <c r="M172" s="18"/>
-      <c r="N172" s="18"/>
-      <c r="O172" s="18"/>
-      <c r="P172" s="18"/>
-      <c r="Q172" s="18"/>
-      <c r="R172" s="18"/>
-      <c r="S172" s="18"/>
-      <c r="T172" s="18"/>
-      <c r="U172" s="18"/>
-      <c r="V172" s="18"/>
-      <c r="W172" s="18"/>
-      <c r="X172" s="26" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="Y172" s="18" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="Z172" s="18" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="AA172" s="18" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="AB172" s="18" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="AC172" s="18" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="AD172" s="18" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="AE172" s="26" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="AF172" s="18" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="AG172" s="18" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="AH172" s="18" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="AI172" s="18" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AJ172" s="18" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="AK172" s="18" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-      <c r="AL172" s="18" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="AM172" s="18" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="AN172" s="18" t="str">
-        <f t="shared" si="55"/>
-        <v/>
-      </c>
-      <c r="AO172" s="18" t="str">
-        <f t="shared" si="56"/>
-        <v/>
-      </c>
-      <c r="AP172" s="18" t="str">
-        <f t="shared" si="57"/>
+      <c r="E172" s="20"/>
+      <c r="F172" s="10"/>
+      <c r="G172" s="10"/>
+      <c r="H172" s="10"/>
+      <c r="I172" s="10"/>
+      <c r="J172" s="10"/>
+      <c r="K172" s="10"/>
+      <c r="L172" s="20"/>
+      <c r="M172" s="10"/>
+      <c r="N172" s="10"/>
+      <c r="O172" s="10"/>
+      <c r="P172" s="10"/>
+      <c r="Q172" s="10"/>
+      <c r="R172" s="10"/>
+      <c r="S172" s="10"/>
+      <c r="T172" s="10"/>
+      <c r="U172" s="10"/>
+      <c r="V172" s="10"/>
+      <c r="W172" s="10"/>
+      <c r="X172" s="20" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="Y172" s="10" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="Z172" s="10" t="str">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+      <c r="AA172" s="10" t="str">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+      <c r="AB172" s="10" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AC172" s="10" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AD172" s="10" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="AE172" s="20" t="str">
+        <f t="shared" si="84"/>
+        <v/>
+      </c>
+      <c r="AF172" s="10" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AG172" s="10" t="str">
+        <f t="shared" si="86"/>
+        <v/>
+      </c>
+      <c r="AH172" s="10" t="str">
+        <f t="shared" si="87"/>
+        <v/>
+      </c>
+      <c r="AI172" s="10" t="str">
+        <f t="shared" si="88"/>
+        <v/>
+      </c>
+      <c r="AJ172" s="10" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AK172" s="10" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AL172" s="10" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AM172" s="10" t="str">
+        <f t="shared" si="92"/>
+        <v/>
+      </c>
+      <c r="AN172" s="10" t="str">
+        <f t="shared" si="93"/>
+        <v/>
+      </c>
+      <c r="AO172" s="10" t="str">
+        <f t="shared" si="94"/>
+        <v/>
+      </c>
+      <c r="AP172" s="10" t="str">
+        <f t="shared" si="95"/>
         <v/>
       </c>
     </row>
@@ -19664,7 +19664,7 @@
         <v>37</v>
       </c>
       <c r="C173" s="18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D173" s="39" t="s">
         <v>13</v>
@@ -19689,461 +19689,737 @@
       <c r="V173" s="18"/>
       <c r="W173" s="18"/>
       <c r="X173" s="26" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="Y173" s="18" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="Z173" s="18" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="AA173" s="18" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="80"/>
         <v/>
       </c>
       <c r="AB173" s="18" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="81"/>
         <v/>
       </c>
       <c r="AC173" s="18" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="AD173" s="18" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="AE173" s="26" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="AF173" s="18" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="AG173" s="18" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="AH173" s="18" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="AI173" s="18" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AJ173" s="18" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AK173" s="18" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="AL173" s="18" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="AM173" s="18" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="AN173" s="18" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="93"/>
         <v/>
       </c>
       <c r="AO173" s="18" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="94"/>
         <v/>
       </c>
       <c r="AP173" s="18" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="95"/>
         <v/>
       </c>
     </row>
     <row r="174" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A174" s="12" t="s">
+      <c r="A174" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B174" s="12" t="s">
+      <c r="B174" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C174" s="18">
+        <v>2</v>
+      </c>
+      <c r="D174" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E174" s="26"/>
+      <c r="F174" s="18"/>
+      <c r="G174" s="18"/>
+      <c r="H174" s="18"/>
+      <c r="I174" s="18"/>
+      <c r="J174" s="18"/>
+      <c r="K174" s="18"/>
+      <c r="L174" s="26"/>
+      <c r="M174" s="18"/>
+      <c r="N174" s="18"/>
+      <c r="O174" s="18"/>
+      <c r="P174" s="18"/>
+      <c r="Q174" s="18"/>
+      <c r="R174" s="18"/>
+      <c r="S174" s="18"/>
+      <c r="T174" s="18"/>
+      <c r="U174" s="18"/>
+      <c r="V174" s="18"/>
+      <c r="W174" s="18"/>
+      <c r="X174" s="26" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="Y174" s="18" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="Z174" s="18" t="str">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+      <c r="AA174" s="18" t="str">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+      <c r="AB174" s="18" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AC174" s="18" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AD174" s="18" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="AE174" s="26" t="str">
+        <f t="shared" si="84"/>
+        <v/>
+      </c>
+      <c r="AF174" s="18" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AG174" s="18" t="str">
+        <f t="shared" si="86"/>
+        <v/>
+      </c>
+      <c r="AH174" s="18" t="str">
+        <f t="shared" si="87"/>
+        <v/>
+      </c>
+      <c r="AI174" s="18" t="str">
+        <f t="shared" si="88"/>
+        <v/>
+      </c>
+      <c r="AJ174" s="18" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AK174" s="18" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AL174" s="18" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AM174" s="18" t="str">
+        <f t="shared" si="92"/>
+        <v/>
+      </c>
+      <c r="AN174" s="18" t="str">
+        <f t="shared" si="93"/>
+        <v/>
+      </c>
+      <c r="AO174" s="18" t="str">
+        <f t="shared" si="94"/>
+        <v/>
+      </c>
+      <c r="AP174" s="18" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A175" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B175" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C175" s="18">
+        <v>3</v>
+      </c>
+      <c r="D175" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E175" s="26"/>
+      <c r="F175" s="18"/>
+      <c r="G175" s="18"/>
+      <c r="H175" s="18"/>
+      <c r="I175" s="18"/>
+      <c r="J175" s="18"/>
+      <c r="K175" s="18"/>
+      <c r="L175" s="26"/>
+      <c r="M175" s="18"/>
+      <c r="N175" s="18"/>
+      <c r="O175" s="18"/>
+      <c r="P175" s="18"/>
+      <c r="Q175" s="18"/>
+      <c r="R175" s="18"/>
+      <c r="S175" s="18"/>
+      <c r="T175" s="18"/>
+      <c r="U175" s="18"/>
+      <c r="V175" s="18"/>
+      <c r="W175" s="18"/>
+      <c r="X175" s="26" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="Y175" s="18" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="Z175" s="18" t="str">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+      <c r="AA175" s="18" t="str">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+      <c r="AB175" s="18" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AC175" s="18" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AD175" s="18" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="AE175" s="26" t="str">
+        <f t="shared" si="84"/>
+        <v/>
+      </c>
+      <c r="AF175" s="18" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AG175" s="18" t="str">
+        <f t="shared" si="86"/>
+        <v/>
+      </c>
+      <c r="AH175" s="18" t="str">
+        <f t="shared" si="87"/>
+        <v/>
+      </c>
+      <c r="AI175" s="18" t="str">
+        <f t="shared" si="88"/>
+        <v/>
+      </c>
+      <c r="AJ175" s="18" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AK175" s="18" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AL175" s="18" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AM175" s="18" t="str">
+        <f t="shared" si="92"/>
+        <v/>
+      </c>
+      <c r="AN175" s="18" t="str">
+        <f t="shared" si="93"/>
+        <v/>
+      </c>
+      <c r="AO175" s="18" t="str">
+        <f t="shared" si="94"/>
+        <v/>
+      </c>
+      <c r="AP175" s="18" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A176" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B176" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C176" s="18">
+        <v>4</v>
+      </c>
+      <c r="D176" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E176" s="26"/>
+      <c r="F176" s="18"/>
+      <c r="G176" s="18"/>
+      <c r="H176" s="18"/>
+      <c r="I176" s="18"/>
+      <c r="J176" s="18"/>
+      <c r="K176" s="18"/>
+      <c r="L176" s="26"/>
+      <c r="M176" s="18"/>
+      <c r="N176" s="18"/>
+      <c r="O176" s="18"/>
+      <c r="P176" s="18"/>
+      <c r="Q176" s="18"/>
+      <c r="R176" s="18"/>
+      <c r="S176" s="18"/>
+      <c r="T176" s="18"/>
+      <c r="U176" s="18"/>
+      <c r="V176" s="18"/>
+      <c r="W176" s="18"/>
+      <c r="X176" s="26" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="Y176" s="18" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="Z176" s="18" t="str">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+      <c r="AA176" s="18" t="str">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+      <c r="AB176" s="18" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AC176" s="18" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AD176" s="18" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="AE176" s="26" t="str">
+        <f t="shared" si="84"/>
+        <v/>
+      </c>
+      <c r="AF176" s="18" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AG176" s="18" t="str">
+        <f t="shared" si="86"/>
+        <v/>
+      </c>
+      <c r="AH176" s="18" t="str">
+        <f t="shared" si="87"/>
+        <v/>
+      </c>
+      <c r="AI176" s="18" t="str">
+        <f t="shared" si="88"/>
+        <v/>
+      </c>
+      <c r="AJ176" s="18" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AK176" s="18" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AL176" s="18" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AM176" s="18" t="str">
+        <f t="shared" si="92"/>
+        <v/>
+      </c>
+      <c r="AN176" s="18" t="str">
+        <f t="shared" si="93"/>
+        <v/>
+      </c>
+      <c r="AO176" s="18" t="str">
+        <f t="shared" si="94"/>
+        <v/>
+      </c>
+      <c r="AP176" s="18" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A177" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B177" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C177" s="18">
+        <v>5</v>
+      </c>
+      <c r="D177" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E177" s="26"/>
+      <c r="F177" s="18"/>
+      <c r="G177" s="18"/>
+      <c r="H177" s="18"/>
+      <c r="I177" s="18"/>
+      <c r="J177" s="18"/>
+      <c r="K177" s="18"/>
+      <c r="L177" s="26"/>
+      <c r="M177" s="18"/>
+      <c r="N177" s="18"/>
+      <c r="O177" s="18"/>
+      <c r="P177" s="18"/>
+      <c r="Q177" s="18"/>
+      <c r="R177" s="18"/>
+      <c r="S177" s="18"/>
+      <c r="T177" s="18"/>
+      <c r="U177" s="18"/>
+      <c r="V177" s="18"/>
+      <c r="W177" s="18"/>
+      <c r="X177" s="26" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="Y177" s="18" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="Z177" s="18" t="str">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+      <c r="AA177" s="18" t="str">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+      <c r="AB177" s="18" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AC177" s="18" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AD177" s="18" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="AE177" s="26" t="str">
+        <f t="shared" si="84"/>
+        <v/>
+      </c>
+      <c r="AF177" s="18" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AG177" s="18" t="str">
+        <f t="shared" si="86"/>
+        <v/>
+      </c>
+      <c r="AH177" s="18" t="str">
+        <f t="shared" si="87"/>
+        <v/>
+      </c>
+      <c r="AI177" s="18" t="str">
+        <f t="shared" si="88"/>
+        <v/>
+      </c>
+      <c r="AJ177" s="18" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AK177" s="18" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AL177" s="18" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AM177" s="18" t="str">
+        <f t="shared" si="92"/>
+        <v/>
+      </c>
+      <c r="AN177" s="18" t="str">
+        <f t="shared" si="93"/>
+        <v/>
+      </c>
+      <c r="AO177" s="18" t="str">
+        <f t="shared" si="94"/>
+        <v/>
+      </c>
+      <c r="AP177" s="18" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A178" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B178" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C174" s="12">
+      <c r="C178" s="12">
         <v>1</v>
       </c>
-      <c r="D174" s="33" t="s">
+      <c r="D178" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="E174" s="22"/>
-      <c r="F174" s="12"/>
-      <c r="G174" s="12"/>
-      <c r="H174" s="12"/>
-      <c r="I174" s="12"/>
-      <c r="J174" s="12"/>
-      <c r="K174" s="12"/>
-      <c r="L174" s="22"/>
-      <c r="M174" s="12"/>
-      <c r="N174" s="12"/>
-      <c r="O174" s="12"/>
-      <c r="P174" s="12"/>
-      <c r="Q174" s="12"/>
-      <c r="R174" s="12"/>
-      <c r="S174" s="12"/>
-      <c r="T174" s="12"/>
-      <c r="U174" s="12"/>
-      <c r="V174" s="12"/>
-      <c r="W174" s="12"/>
-      <c r="X174" s="22" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="Y174" s="12" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="Z174" s="12" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="AA174" s="12" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="AB174" s="12" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="AC174" s="12" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="AD174" s="12" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="AE174" s="22" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="AF174" s="12" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="AG174" s="12" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="AH174" s="12" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="AI174" s="12" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AJ174" s="12" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="AK174" s="12" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-      <c r="AL174" s="12" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="AM174" s="12" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="AN174" s="12" t="str">
-        <f t="shared" si="55"/>
-        <v/>
-      </c>
-      <c r="AO174" s="12" t="str">
-        <f t="shared" si="56"/>
-        <v/>
-      </c>
-      <c r="AP174" s="12" t="str">
-        <f t="shared" si="57"/>
-        <v/>
-      </c>
-    </row>
-    <row r="175" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A175" s="12" t="s">
+      <c r="E178" s="22"/>
+      <c r="F178" s="12"/>
+      <c r="G178" s="12"/>
+      <c r="H178" s="12"/>
+      <c r="I178" s="12"/>
+      <c r="J178" s="12"/>
+      <c r="K178" s="12"/>
+      <c r="L178" s="22"/>
+      <c r="M178" s="12"/>
+      <c r="N178" s="12"/>
+      <c r="O178" s="12"/>
+      <c r="P178" s="12"/>
+      <c r="Q178" s="12"/>
+      <c r="R178" s="12"/>
+      <c r="S178" s="12"/>
+      <c r="T178" s="12"/>
+      <c r="U178" s="12"/>
+      <c r="V178" s="12"/>
+      <c r="W178" s="12"/>
+      <c r="X178" s="22" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="Y178" s="12" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="Z178" s="12" t="str">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+      <c r="AA178" s="12" t="str">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+      <c r="AB178" s="12" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AC178" s="12" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AD178" s="12" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="AE178" s="22" t="str">
+        <f t="shared" si="84"/>
+        <v/>
+      </c>
+      <c r="AF178" s="12" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AG178" s="12" t="str">
+        <f t="shared" si="86"/>
+        <v/>
+      </c>
+      <c r="AH178" s="12" t="str">
+        <f t="shared" si="87"/>
+        <v/>
+      </c>
+      <c r="AI178" s="12" t="str">
+        <f t="shared" si="88"/>
+        <v/>
+      </c>
+      <c r="AJ178" s="12" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AK178" s="12" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AL178" s="12" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AM178" s="12" t="str">
+        <f t="shared" si="92"/>
+        <v/>
+      </c>
+      <c r="AN178" s="12" t="str">
+        <f t="shared" si="93"/>
+        <v/>
+      </c>
+      <c r="AO178" s="12" t="str">
+        <f t="shared" si="94"/>
+        <v/>
+      </c>
+      <c r="AP178" s="12" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A179" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B175" s="12" t="s">
+      <c r="B179" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C175" s="12">
+      <c r="C179" s="12">
         <v>2</v>
       </c>
-      <c r="D175" s="33" t="s">
+      <c r="D179" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="E175" s="22"/>
-      <c r="F175" s="12"/>
-      <c r="G175" s="12"/>
-      <c r="H175" s="12"/>
-      <c r="I175" s="12"/>
-      <c r="J175" s="12"/>
-      <c r="K175" s="12"/>
-      <c r="L175" s="22"/>
-      <c r="M175" s="12"/>
-      <c r="N175" s="12"/>
-      <c r="O175" s="12"/>
-      <c r="P175" s="12"/>
-      <c r="Q175" s="12"/>
-      <c r="R175" s="12"/>
-      <c r="S175" s="12"/>
-      <c r="T175" s="12"/>
-      <c r="U175" s="12"/>
-      <c r="V175" s="12"/>
-      <c r="W175" s="12"/>
-      <c r="X175" s="22" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="Y175" s="12" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="Z175" s="12" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="AA175" s="12" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="AB175" s="12" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="AC175" s="12" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="AD175" s="12" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="AE175" s="22" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="AF175" s="12" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="AG175" s="12" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="AH175" s="12" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="AI175" s="12" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AJ175" s="12" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="AK175" s="12" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-      <c r="AL175" s="12" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="AM175" s="12" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="AN175" s="12" t="str">
-        <f t="shared" si="55"/>
-        <v/>
-      </c>
-      <c r="AO175" s="12" t="str">
-        <f t="shared" si="56"/>
-        <v/>
-      </c>
-      <c r="AP175" s="12" t="str">
-        <f t="shared" si="57"/>
-        <v/>
-      </c>
-    </row>
-    <row r="176" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="E176" s="50"/>
-      <c r="F176" s="51"/>
-      <c r="G176" s="51"/>
-      <c r="H176" s="51"/>
-      <c r="I176" s="51"/>
-      <c r="J176" s="51"/>
-      <c r="K176" s="51"/>
-      <c r="L176" s="50"/>
-      <c r="M176" s="51"/>
-      <c r="N176" s="51"/>
-      <c r="O176" s="51"/>
-      <c r="P176" s="51"/>
-      <c r="Q176" s="51"/>
-      <c r="R176" s="51"/>
-      <c r="S176" s="51"/>
-      <c r="T176" s="51"/>
-      <c r="U176" s="51"/>
-      <c r="V176" s="51"/>
-      <c r="W176" s="51"/>
-      <c r="X176" s="50"/>
-      <c r="Y176" s="51"/>
-      <c r="Z176" s="51"/>
-      <c r="AA176" s="51"/>
-      <c r="AB176" s="51"/>
-      <c r="AC176" s="51"/>
-      <c r="AD176" s="51"/>
-      <c r="AE176" s="50"/>
-      <c r="AF176" s="51"/>
-      <c r="AG176" s="51"/>
-      <c r="AH176" s="51"/>
-      <c r="AI176" s="51"/>
-      <c r="AJ176" s="51"/>
-      <c r="AK176" s="51"/>
-      <c r="AL176" s="51"/>
-      <c r="AM176" s="51"/>
-      <c r="AN176" s="51"/>
-      <c r="AO176" s="51"/>
-      <c r="AP176" s="51"/>
-    </row>
-    <row r="177" spans="5:42" x14ac:dyDescent="0.2">
-      <c r="E177" s="50"/>
-      <c r="F177" s="51"/>
-      <c r="G177" s="51"/>
-      <c r="H177" s="51"/>
-      <c r="I177" s="51"/>
-      <c r="J177" s="51"/>
-      <c r="K177" s="51"/>
-      <c r="L177" s="50"/>
-      <c r="M177" s="51"/>
-      <c r="N177" s="51"/>
-      <c r="O177" s="51"/>
-      <c r="P177" s="51"/>
-      <c r="Q177" s="51"/>
-      <c r="R177" s="51"/>
-      <c r="S177" s="51"/>
-      <c r="T177" s="51"/>
-      <c r="U177" s="51"/>
-      <c r="V177" s="51"/>
-      <c r="W177" s="51"/>
-      <c r="X177" s="50"/>
-      <c r="Y177" s="51"/>
-      <c r="Z177" s="51"/>
-      <c r="AA177" s="51"/>
-      <c r="AB177" s="51"/>
-      <c r="AC177" s="51"/>
-      <c r="AD177" s="51"/>
-      <c r="AE177" s="50"/>
-      <c r="AF177" s="51"/>
-      <c r="AG177" s="51"/>
-      <c r="AH177" s="51"/>
-      <c r="AI177" s="51"/>
-      <c r="AJ177" s="51"/>
-      <c r="AK177" s="51"/>
-      <c r="AL177" s="51"/>
-      <c r="AM177" s="51"/>
-      <c r="AN177" s="51"/>
-      <c r="AO177" s="51"/>
-      <c r="AP177" s="51"/>
-    </row>
-    <row r="178" spans="5:42" x14ac:dyDescent="0.2">
-      <c r="E178" s="50"/>
-      <c r="F178" s="51"/>
-      <c r="G178" s="51"/>
-      <c r="H178" s="51"/>
-      <c r="I178" s="51"/>
-      <c r="J178" s="51"/>
-      <c r="K178" s="51"/>
-      <c r="L178" s="50"/>
-      <c r="M178" s="51"/>
-      <c r="N178" s="51"/>
-      <c r="O178" s="51"/>
-      <c r="P178" s="51"/>
-      <c r="Q178" s="51"/>
-      <c r="R178" s="51"/>
-      <c r="S178" s="51"/>
-      <c r="T178" s="51"/>
-      <c r="U178" s="51"/>
-      <c r="V178" s="51"/>
-      <c r="W178" s="51"/>
-      <c r="X178" s="50"/>
-      <c r="Y178" s="51"/>
-      <c r="Z178" s="51"/>
-      <c r="AA178" s="51"/>
-      <c r="AB178" s="51"/>
-      <c r="AC178" s="51"/>
-      <c r="AD178" s="51"/>
-      <c r="AE178" s="50"/>
-      <c r="AF178" s="51"/>
-      <c r="AG178" s="51"/>
-      <c r="AH178" s="51"/>
-      <c r="AI178" s="51"/>
-      <c r="AJ178" s="51"/>
-      <c r="AK178" s="51"/>
-      <c r="AL178" s="51"/>
-      <c r="AM178" s="51"/>
-      <c r="AN178" s="51"/>
-      <c r="AO178" s="51"/>
-      <c r="AP178" s="51"/>
-    </row>
-    <row r="179" spans="5:42" x14ac:dyDescent="0.2">
-      <c r="E179" s="50"/>
-      <c r="F179" s="51"/>
-      <c r="G179" s="51"/>
-      <c r="H179" s="51"/>
-      <c r="I179" s="51"/>
-      <c r="J179" s="51"/>
-      <c r="K179" s="51"/>
-      <c r="L179" s="50"/>
-      <c r="M179" s="51"/>
-      <c r="N179" s="51"/>
-      <c r="O179" s="51"/>
-      <c r="P179" s="51"/>
-      <c r="Q179" s="51"/>
-      <c r="R179" s="51"/>
-      <c r="S179" s="51"/>
-      <c r="T179" s="51"/>
-      <c r="U179" s="51"/>
-      <c r="V179" s="51"/>
-      <c r="W179" s="51"/>
-      <c r="X179" s="50"/>
-      <c r="Y179" s="51"/>
-      <c r="Z179" s="51"/>
-      <c r="AA179" s="51"/>
-      <c r="AB179" s="51"/>
-      <c r="AC179" s="51"/>
-      <c r="AD179" s="51"/>
-      <c r="AE179" s="50"/>
-      <c r="AF179" s="51"/>
-      <c r="AG179" s="51"/>
-      <c r="AH179" s="51"/>
-      <c r="AI179" s="51"/>
-      <c r="AJ179" s="51"/>
-      <c r="AK179" s="51"/>
-      <c r="AL179" s="51"/>
-      <c r="AM179" s="51"/>
-      <c r="AN179" s="51"/>
-      <c r="AO179" s="51"/>
-      <c r="AP179" s="51"/>
-    </row>
-    <row r="180" spans="5:42" x14ac:dyDescent="0.2">
+      <c r="E179" s="22"/>
+      <c r="F179" s="12"/>
+      <c r="G179" s="12"/>
+      <c r="H179" s="12"/>
+      <c r="I179" s="12"/>
+      <c r="J179" s="12"/>
+      <c r="K179" s="12"/>
+      <c r="L179" s="22"/>
+      <c r="M179" s="12"/>
+      <c r="N179" s="12"/>
+      <c r="O179" s="12"/>
+      <c r="P179" s="12"/>
+      <c r="Q179" s="12"/>
+      <c r="R179" s="12"/>
+      <c r="S179" s="12"/>
+      <c r="T179" s="12"/>
+      <c r="U179" s="12"/>
+      <c r="V179" s="12"/>
+      <c r="W179" s="12"/>
+      <c r="X179" s="22" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="Y179" s="12" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="Z179" s="12" t="str">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+      <c r="AA179" s="12" t="str">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+      <c r="AB179" s="12" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AC179" s="12" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AD179" s="12" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="AE179" s="22" t="str">
+        <f t="shared" si="84"/>
+        <v/>
+      </c>
+      <c r="AF179" s="12" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="AG179" s="12" t="str">
+        <f t="shared" si="86"/>
+        <v/>
+      </c>
+      <c r="AH179" s="12" t="str">
+        <f t="shared" si="87"/>
+        <v/>
+      </c>
+      <c r="AI179" s="12" t="str">
+        <f t="shared" si="88"/>
+        <v/>
+      </c>
+      <c r="AJ179" s="12" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="AK179" s="12" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="AL179" s="12" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="AM179" s="12" t="str">
+        <f t="shared" si="92"/>
+        <v/>
+      </c>
+      <c r="AN179" s="12" t="str">
+        <f t="shared" si="93"/>
+        <v/>
+      </c>
+      <c r="AO179" s="12" t="str">
+        <f t="shared" si="94"/>
+        <v/>
+      </c>
+      <c r="AP179" s="12" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="1:42" x14ac:dyDescent="0.2">
       <c r="E180" s="50"/>
       <c r="F180" s="51"/>
       <c r="G180" s="51"/>
@@ -20183,7 +20459,7 @@
       <c r="AO180" s="51"/>
       <c r="AP180" s="51"/>
     </row>
-    <row r="181" spans="5:42" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:42" x14ac:dyDescent="0.2">
       <c r="E181" s="50"/>
       <c r="F181" s="51"/>
       <c r="G181" s="51"/>
@@ -20223,7 +20499,7 @@
       <c r="AO181" s="51"/>
       <c r="AP181" s="51"/>
     </row>
-    <row r="182" spans="5:42" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:42" x14ac:dyDescent="0.2">
       <c r="E182" s="50"/>
       <c r="F182" s="51"/>
       <c r="G182" s="51"/>
@@ -20263,7 +20539,7 @@
       <c r="AO182" s="51"/>
       <c r="AP182" s="51"/>
     </row>
-    <row r="183" spans="5:42" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:42" x14ac:dyDescent="0.2">
       <c r="E183" s="50"/>
       <c r="F183" s="51"/>
       <c r="G183" s="51"/>
@@ -20303,7 +20579,7 @@
       <c r="AO183" s="51"/>
       <c r="AP183" s="51"/>
     </row>
-    <row r="184" spans="5:42" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:42" x14ac:dyDescent="0.2">
       <c r="E184" s="50"/>
       <c r="F184" s="51"/>
       <c r="G184" s="51"/>
@@ -20343,7 +20619,7 @@
       <c r="AO184" s="51"/>
       <c r="AP184" s="51"/>
     </row>
-    <row r="185" spans="5:42" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:42" x14ac:dyDescent="0.2">
       <c r="E185" s="50"/>
       <c r="F185" s="51"/>
       <c r="G185" s="51"/>
@@ -20383,7 +20659,7 @@
       <c r="AO185" s="51"/>
       <c r="AP185" s="51"/>
     </row>
-    <row r="186" spans="5:42" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:42" x14ac:dyDescent="0.2">
       <c r="E186" s="50"/>
       <c r="F186" s="51"/>
       <c r="G186" s="51"/>
@@ -20423,7 +20699,7 @@
       <c r="AO186" s="51"/>
       <c r="AP186" s="51"/>
     </row>
-    <row r="187" spans="5:42" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:42" x14ac:dyDescent="0.2">
       <c r="E187" s="50"/>
       <c r="F187" s="51"/>
       <c r="G187" s="51"/>
@@ -20463,7 +20739,7 @@
       <c r="AO187" s="51"/>
       <c r="AP187" s="51"/>
     </row>
-    <row r="188" spans="5:42" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:42" x14ac:dyDescent="0.2">
       <c r="E188" s="50"/>
       <c r="F188" s="51"/>
       <c r="G188" s="51"/>
@@ -20503,7 +20779,7 @@
       <c r="AO188" s="51"/>
       <c r="AP188" s="51"/>
     </row>
-    <row r="189" spans="5:42" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:42" x14ac:dyDescent="0.2">
       <c r="E189" s="50"/>
       <c r="F189" s="51"/>
       <c r="G189" s="51"/>
@@ -20543,7 +20819,7 @@
       <c r="AO189" s="51"/>
       <c r="AP189" s="51"/>
     </row>
-    <row r="190" spans="5:42" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:42" x14ac:dyDescent="0.2">
       <c r="E190" s="50"/>
       <c r="F190" s="51"/>
       <c r="G190" s="51"/>
@@ -20583,7 +20859,7 @@
       <c r="AO190" s="51"/>
       <c r="AP190" s="51"/>
     </row>
-    <row r="191" spans="5:42" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:42" x14ac:dyDescent="0.2">
       <c r="E191" s="50"/>
       <c r="F191" s="51"/>
       <c r="G191" s="51"/>
@@ -20623,7 +20899,7 @@
       <c r="AO191" s="51"/>
       <c r="AP191" s="51"/>
     </row>
-    <row r="192" spans="5:42" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:42" x14ac:dyDescent="0.2">
       <c r="E192" s="50"/>
       <c r="F192" s="51"/>
       <c r="G192" s="51"/>
@@ -43142,6 +43418,166 @@
       <c r="AN754" s="51"/>
       <c r="AO754" s="51"/>
       <c r="AP754" s="51"/>
+    </row>
+    <row r="755" spans="5:42" x14ac:dyDescent="0.2">
+      <c r="E755" s="50"/>
+      <c r="F755" s="51"/>
+      <c r="G755" s="51"/>
+      <c r="H755" s="51"/>
+      <c r="I755" s="51"/>
+      <c r="J755" s="51"/>
+      <c r="K755" s="51"/>
+      <c r="L755" s="50"/>
+      <c r="M755" s="51"/>
+      <c r="N755" s="51"/>
+      <c r="O755" s="51"/>
+      <c r="P755" s="51"/>
+      <c r="Q755" s="51"/>
+      <c r="R755" s="51"/>
+      <c r="S755" s="51"/>
+      <c r="T755" s="51"/>
+      <c r="U755" s="51"/>
+      <c r="V755" s="51"/>
+      <c r="W755" s="51"/>
+      <c r="X755" s="50"/>
+      <c r="Y755" s="51"/>
+      <c r="Z755" s="51"/>
+      <c r="AA755" s="51"/>
+      <c r="AB755" s="51"/>
+      <c r="AC755" s="51"/>
+      <c r="AD755" s="51"/>
+      <c r="AE755" s="50"/>
+      <c r="AF755" s="51"/>
+      <c r="AG755" s="51"/>
+      <c r="AH755" s="51"/>
+      <c r="AI755" s="51"/>
+      <c r="AJ755" s="51"/>
+      <c r="AK755" s="51"/>
+      <c r="AL755" s="51"/>
+      <c r="AM755" s="51"/>
+      <c r="AN755" s="51"/>
+      <c r="AO755" s="51"/>
+      <c r="AP755" s="51"/>
+    </row>
+    <row r="756" spans="5:42" x14ac:dyDescent="0.2">
+      <c r="E756" s="50"/>
+      <c r="F756" s="51"/>
+      <c r="G756" s="51"/>
+      <c r="H756" s="51"/>
+      <c r="I756" s="51"/>
+      <c r="J756" s="51"/>
+      <c r="K756" s="51"/>
+      <c r="L756" s="50"/>
+      <c r="M756" s="51"/>
+      <c r="N756" s="51"/>
+      <c r="O756" s="51"/>
+      <c r="P756" s="51"/>
+      <c r="Q756" s="51"/>
+      <c r="R756" s="51"/>
+      <c r="S756" s="51"/>
+      <c r="T756" s="51"/>
+      <c r="U756" s="51"/>
+      <c r="V756" s="51"/>
+      <c r="W756" s="51"/>
+      <c r="X756" s="50"/>
+      <c r="Y756" s="51"/>
+      <c r="Z756" s="51"/>
+      <c r="AA756" s="51"/>
+      <c r="AB756" s="51"/>
+      <c r="AC756" s="51"/>
+      <c r="AD756" s="51"/>
+      <c r="AE756" s="50"/>
+      <c r="AF756" s="51"/>
+      <c r="AG756" s="51"/>
+      <c r="AH756" s="51"/>
+      <c r="AI756" s="51"/>
+      <c r="AJ756" s="51"/>
+      <c r="AK756" s="51"/>
+      <c r="AL756" s="51"/>
+      <c r="AM756" s="51"/>
+      <c r="AN756" s="51"/>
+      <c r="AO756" s="51"/>
+      <c r="AP756" s="51"/>
+    </row>
+    <row r="757" spans="5:42" x14ac:dyDescent="0.2">
+      <c r="E757" s="50"/>
+      <c r="F757" s="51"/>
+      <c r="G757" s="51"/>
+      <c r="H757" s="51"/>
+      <c r="I757" s="51"/>
+      <c r="J757" s="51"/>
+      <c r="K757" s="51"/>
+      <c r="L757" s="50"/>
+      <c r="M757" s="51"/>
+      <c r="N757" s="51"/>
+      <c r="O757" s="51"/>
+      <c r="P757" s="51"/>
+      <c r="Q757" s="51"/>
+      <c r="R757" s="51"/>
+      <c r="S757" s="51"/>
+      <c r="T757" s="51"/>
+      <c r="U757" s="51"/>
+      <c r="V757" s="51"/>
+      <c r="W757" s="51"/>
+      <c r="X757" s="50"/>
+      <c r="Y757" s="51"/>
+      <c r="Z757" s="51"/>
+      <c r="AA757" s="51"/>
+      <c r="AB757" s="51"/>
+      <c r="AC757" s="51"/>
+      <c r="AD757" s="51"/>
+      <c r="AE757" s="50"/>
+      <c r="AF757" s="51"/>
+      <c r="AG757" s="51"/>
+      <c r="AH757" s="51"/>
+      <c r="AI757" s="51"/>
+      <c r="AJ757" s="51"/>
+      <c r="AK757" s="51"/>
+      <c r="AL757" s="51"/>
+      <c r="AM757" s="51"/>
+      <c r="AN757" s="51"/>
+      <c r="AO757" s="51"/>
+      <c r="AP757" s="51"/>
+    </row>
+    <row r="758" spans="5:42" x14ac:dyDescent="0.2">
+      <c r="E758" s="50"/>
+      <c r="F758" s="51"/>
+      <c r="G758" s="51"/>
+      <c r="H758" s="51"/>
+      <c r="I758" s="51"/>
+      <c r="J758" s="51"/>
+      <c r="K758" s="51"/>
+      <c r="L758" s="50"/>
+      <c r="M758" s="51"/>
+      <c r="N758" s="51"/>
+      <c r="O758" s="51"/>
+      <c r="P758" s="51"/>
+      <c r="Q758" s="51"/>
+      <c r="R758" s="51"/>
+      <c r="S758" s="51"/>
+      <c r="T758" s="51"/>
+      <c r="U758" s="51"/>
+      <c r="V758" s="51"/>
+      <c r="W758" s="51"/>
+      <c r="X758" s="50"/>
+      <c r="Y758" s="51"/>
+      <c r="Z758" s="51"/>
+      <c r="AA758" s="51"/>
+      <c r="AB758" s="51"/>
+      <c r="AC758" s="51"/>
+      <c r="AD758" s="51"/>
+      <c r="AE758" s="50"/>
+      <c r="AF758" s="51"/>
+      <c r="AG758" s="51"/>
+      <c r="AH758" s="51"/>
+      <c r="AI758" s="51"/>
+      <c r="AJ758" s="51"/>
+      <c r="AK758" s="51"/>
+      <c r="AL758" s="51"/>
+      <c r="AM758" s="51"/>
+      <c r="AN758" s="51"/>
+      <c r="AO758" s="51"/>
+      <c r="AP758" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="4">
